--- a/src/main/resources/apibatch.xlsx
+++ b/src/main/resources/apibatch.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21450" windowHeight="6225" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21450" windowHeight="6225"/>
   </bookViews>
   <sheets>
     <sheet name="api_info" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="44">
   <si>
     <t>post</t>
   </si>
@@ -113,23 +113,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"Data":{"BatchNumber":"T5093-EKD1808071096","ProductCode":"F-E(2DAY)ddd","WarehouseCode":"CA","ReferenceNumber":"","LabelType":1},"Version":"0.0.0.3","RequestTime":"2017-09-21T08:00:38.0852597Z","RequestId":null}</t>
-  </si>
-  <si>
     <t>T5093-EKD1808071096</t>
   </si>
   <si>
-    <t>T5093-EKD1808071096</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"Data":{"BoxNum":2,"BatchNumber":"T5093-EKD1808071096","ShippingMarks":[{"ShippingMarkNumber":"T5093-EKD1808071096-0001","ReferenceBoxNumber":"ZDYXMH723897"},{"ShippingMarkNumber":"T5093-EKD1808071096-0002","ReferenceBoxNumber":""}]},"Version":"0.0.0.3","RequestTime":"2018-08-05T09:14:43.2154393Z","RequestId":"3287ff3e-03ef-42d9-8cea-3b661b1fba3c1"}</t>
-  </si>
-  <si>
-    <t>{"Data":{"ShippingMarkNumber":"T5093-EKD1808071096-0001","BindingPackageByNumberList":[{"OrderId":"TestXM368966","Number":"61299992140437040988"},{"OrderId":"TestXM428608","Number":"61299992140437040995"},{"OrderId":"TestXM236871","Number":"61299992140437041008"}]},"Version":"0.0.0.3","RequestTime":"2017-08-07T07:36:15.0296866Z","RequestId":null}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ResponseResult":1</t>
   </si>
   <si>
@@ -172,11 +158,84 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ActualReponseData(实际响应数据)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>AssertResult(断言结果)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ActualReponseData(实际响应数据)</t>
+    <t>Base64img(Base64图片)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "Data": {
+    "BatchNumber": "T5093-EKD1808071096",
+    "ProductCode": "F-E(2DAY)ddd",
+    "WarehouseCode": "CA",
+    "ReferenceNumber": "",
+    "LabelType": 1
+  },
+  "Version": "0.0.0.3",
+  "RequestTime": "2017-09-21T08:00:38.0852597Z",
+  "RequestId": null
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "Data": {
+    "BoxNum": 2,
+    "BatchNumber": "T5093-EKD1808071096",
+    "ShippingMarks": [
+      {
+        "ShippingMarkNumber": "T5093-EKD1808071096-0001",
+        "ReferenceBoxNumber": "ZDYXMH723897"
+      },
+      {
+        "ShippingMarkNumber": "T5093-EKD1808071096-0002",
+        "ReferenceBoxNumber": ""
+      }
+    ]
+  },
+  "Version": "0.0.0.3",
+  "RequestTime": "2018-08-05T09:14:43.2154393Z",
+  "RequestId": "3287ff3e-03ef-42d9-8cea-3b661b1fba3c1"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "Data": {
+    "ShippingMarkNumber": "T5093-EKD1808071096-0001",
+    "BindingPackageByNumberList": [
+      {
+        "OrderId": "TestXM368966",
+        "Number": "61299992140437040988"
+      },
+      {
+        "OrderId": "TestXM428608",
+        "Number": "61299992140437040995"
+      },
+      {
+        "OrderId": "TestXM236871",
+        "Number": "61299992140437041008"
+      }
+    ]
+  },
+  "Version": "0.0.0.3",
+  "RequestTime": "2017-08-07T07:36:15.0296866Z",
+  "RequestId": null
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://test-oms.eminxing.com:50080/</t>
+  </si>
+  <si>
+    <t>post</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -593,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" activeCellId="1" sqref="B3 C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -635,8 +694,18 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B3" s="6"/>
-      <c r="D3" s="12"/>
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B4" s="6"/>
@@ -695,10 +764,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K61"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -708,15 +777,15 @@
     <col min="3" max="3" width="24.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="51.625" style="3" customWidth="1"/>
     <col min="5" max="5" width="14" style="3" customWidth="1"/>
-    <col min="6" max="7" width="34.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.75" style="1"/>
-    <col min="9" max="9" width="21.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="31.75" style="1"/>
-    <col min="11" max="11" width="23.25" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="31.75" style="1"/>
+    <col min="6" max="8" width="34.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="31.75" style="1"/>
+    <col min="10" max="10" width="21.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="31.75" style="1"/>
+    <col min="12" max="12" width="23.25" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="31.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="115.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="115.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -733,25 +802,28 @@
         <v>11</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>38</v>
       </c>
       <c r="I1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="368.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" ht="368.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -762,23 +834,24 @@
         <v>9</v>
       </c>
       <c r="D2" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="11" t="s">
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="9"/>
+      <c r="K2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="9"/>
-    </row>
-    <row r="3" spans="1:11" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="L2" s="9"/>
+    </row>
+    <row r="3" spans="1:12" ht="297" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>18</v>
       </c>
@@ -789,23 +862,24 @@
         <v>9</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="11" t="s">
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="9"/>
+      <c r="K3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="9"/>
-    </row>
-    <row r="4" spans="1:11" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="L3" s="9"/>
+    </row>
+    <row r="4" spans="1:12" ht="310.5" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -816,15 +890,16 @@
         <v>22</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F4"/>
       <c r="G4"/>
-    </row>
-    <row r="5" spans="1:11" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="H4"/>
+    </row>
+    <row r="5" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -835,15 +910,16 @@
         <v>22</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F5"/>
       <c r="G5"/>
-    </row>
-    <row r="6" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="H5"/>
+    </row>
+    <row r="6" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -854,15 +930,16 @@
         <v>22</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F6"/>
       <c r="G6"/>
-    </row>
-    <row r="7" spans="1:11" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="H6"/>
+    </row>
+    <row r="7" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -873,15 +950,16 @@
         <v>22</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F7"/>
       <c r="G7"/>
-    </row>
-    <row r="8" spans="1:11" ht="243" x14ac:dyDescent="0.15">
+      <c r="H7"/>
+    </row>
+    <row r="8" spans="1:12" ht="243" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -899,8 +977,9 @@
       </c>
       <c r="F8"/>
       <c r="G8"/>
-    </row>
-    <row r="9" spans="1:11" ht="243" x14ac:dyDescent="0.15">
+      <c r="H8"/>
+    </row>
+    <row r="9" spans="1:12" ht="243" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -918,8 +997,9 @@
       </c>
       <c r="F9"/>
       <c r="G9"/>
-    </row>
-    <row r="10" spans="1:11" ht="243" x14ac:dyDescent="0.15">
+      <c r="H9"/>
+    </row>
+    <row r="10" spans="1:12" ht="243" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -937,8 +1017,9 @@
       </c>
       <c r="F10"/>
       <c r="G10"/>
-    </row>
-    <row r="11" spans="1:11" ht="243" x14ac:dyDescent="0.15">
+      <c r="H10"/>
+    </row>
+    <row r="11" spans="1:12" ht="243" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -956,8 +1037,9 @@
       </c>
       <c r="F11"/>
       <c r="G11"/>
-    </row>
-    <row r="12" spans="1:11" ht="243" x14ac:dyDescent="0.15">
+      <c r="H11"/>
+    </row>
+    <row r="12" spans="1:12" ht="243" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -975,8 +1057,9 @@
       </c>
       <c r="F12"/>
       <c r="G12"/>
-    </row>
-    <row r="13" spans="1:11" ht="243" x14ac:dyDescent="0.15">
+      <c r="H12"/>
+    </row>
+    <row r="13" spans="1:12" ht="243" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -994,8 +1077,9 @@
       </c>
       <c r="F13"/>
       <c r="G13"/>
-    </row>
-    <row r="14" spans="1:11" ht="243" x14ac:dyDescent="0.15">
+      <c r="H13"/>
+    </row>
+    <row r="14" spans="1:12" ht="243" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1013,8 +1097,9 @@
       </c>
       <c r="F14"/>
       <c r="G14"/>
-    </row>
-    <row r="15" spans="1:11" ht="243" x14ac:dyDescent="0.15">
+      <c r="H14"/>
+    </row>
+    <row r="15" spans="1:12" ht="243" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1032,8 +1117,9 @@
       </c>
       <c r="F15"/>
       <c r="G15"/>
-    </row>
-    <row r="16" spans="1:11" ht="243" x14ac:dyDescent="0.15">
+      <c r="H15"/>
+    </row>
+    <row r="16" spans="1:12" ht="243" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1051,8 +1137,9 @@
       </c>
       <c r="F16"/>
       <c r="G16"/>
-    </row>
-    <row r="17" spans="1:7" ht="243" x14ac:dyDescent="0.15">
+      <c r="H16"/>
+    </row>
+    <row r="17" spans="1:8" ht="243" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1070,8 +1157,9 @@
       </c>
       <c r="F17"/>
       <c r="G17"/>
-    </row>
-    <row r="18" spans="1:7" ht="243" x14ac:dyDescent="0.15">
+      <c r="H17"/>
+    </row>
+    <row r="18" spans="1:8" ht="243" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1089,8 +1177,9 @@
       </c>
       <c r="F18"/>
       <c r="G18"/>
-    </row>
-    <row r="19" spans="1:7" ht="243" x14ac:dyDescent="0.15">
+      <c r="H18"/>
+    </row>
+    <row r="19" spans="1:8" ht="243" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1108,8 +1197,9 @@
       </c>
       <c r="F19"/>
       <c r="G19"/>
-    </row>
-    <row r="20" spans="1:7" ht="243" x14ac:dyDescent="0.15">
+      <c r="H19"/>
+    </row>
+    <row r="20" spans="1:8" ht="243" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1127,8 +1217,9 @@
       </c>
       <c r="F20"/>
       <c r="G20"/>
-    </row>
-    <row r="21" spans="1:7" ht="243" x14ac:dyDescent="0.15">
+      <c r="H20"/>
+    </row>
+    <row r="21" spans="1:8" ht="243" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1146,8 +1237,9 @@
       </c>
       <c r="F21"/>
       <c r="G21"/>
-    </row>
-    <row r="22" spans="1:7" ht="243" x14ac:dyDescent="0.15">
+      <c r="H21"/>
+    </row>
+    <row r="22" spans="1:8" ht="243" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1165,8 +1257,9 @@
       </c>
       <c r="F22"/>
       <c r="G22"/>
-    </row>
-    <row r="23" spans="1:7" ht="243" x14ac:dyDescent="0.15">
+      <c r="H22"/>
+    </row>
+    <row r="23" spans="1:8" ht="243" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1184,8 +1277,9 @@
       </c>
       <c r="F23"/>
       <c r="G23"/>
-    </row>
-    <row r="24" spans="1:7" ht="243" x14ac:dyDescent="0.15">
+      <c r="H23"/>
+    </row>
+    <row r="24" spans="1:8" ht="243" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1203,8 +1297,9 @@
       </c>
       <c r="F24"/>
       <c r="G24"/>
-    </row>
-    <row r="25" spans="1:7" ht="243" x14ac:dyDescent="0.15">
+      <c r="H24"/>
+    </row>
+    <row r="25" spans="1:8" ht="243" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1222,8 +1317,9 @@
       </c>
       <c r="F25"/>
       <c r="G25"/>
-    </row>
-    <row r="26" spans="1:7" ht="243" x14ac:dyDescent="0.15">
+      <c r="H25"/>
+    </row>
+    <row r="26" spans="1:8" ht="243" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1241,8 +1337,9 @@
       </c>
       <c r="F26"/>
       <c r="G26"/>
-    </row>
-    <row r="27" spans="1:7" ht="243" x14ac:dyDescent="0.15">
+      <c r="H26"/>
+    </row>
+    <row r="27" spans="1:8" ht="243" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1260,8 +1357,9 @@
       </c>
       <c r="F27"/>
       <c r="G27"/>
-    </row>
-    <row r="28" spans="1:7" ht="243" x14ac:dyDescent="0.15">
+      <c r="H27"/>
+    </row>
+    <row r="28" spans="1:8" ht="243" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1279,8 +1377,9 @@
       </c>
       <c r="F28"/>
       <c r="G28"/>
-    </row>
-    <row r="29" spans="1:7" ht="243" x14ac:dyDescent="0.15">
+      <c r="H28"/>
+    </row>
+    <row r="29" spans="1:8" ht="243" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1298,8 +1397,9 @@
       </c>
       <c r="F29"/>
       <c r="G29"/>
-    </row>
-    <row r="30" spans="1:7" ht="243" x14ac:dyDescent="0.15">
+      <c r="H29"/>
+    </row>
+    <row r="30" spans="1:8" ht="243" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1317,8 +1417,9 @@
       </c>
       <c r="F30"/>
       <c r="G30"/>
-    </row>
-    <row r="31" spans="1:7" ht="243" x14ac:dyDescent="0.15">
+      <c r="H30"/>
+    </row>
+    <row r="31" spans="1:8" ht="243" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -1336,8 +1437,9 @@
       </c>
       <c r="F31"/>
       <c r="G31"/>
-    </row>
-    <row r="32" spans="1:7" ht="243" x14ac:dyDescent="0.15">
+      <c r="H31"/>
+    </row>
+    <row r="32" spans="1:8" ht="243" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -1355,8 +1457,9 @@
       </c>
       <c r="F32"/>
       <c r="G32"/>
-    </row>
-    <row r="33" spans="1:7" ht="243" x14ac:dyDescent="0.15">
+      <c r="H32"/>
+    </row>
+    <row r="33" spans="1:8" ht="243" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -1374,8 +1477,9 @@
       </c>
       <c r="F33"/>
       <c r="G33"/>
-    </row>
-    <row r="34" spans="1:7" ht="243" x14ac:dyDescent="0.15">
+      <c r="H33"/>
+    </row>
+    <row r="34" spans="1:8" ht="243" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -1393,8 +1497,9 @@
       </c>
       <c r="F34"/>
       <c r="G34"/>
-    </row>
-    <row r="35" spans="1:7" ht="243" x14ac:dyDescent="0.15">
+      <c r="H34"/>
+    </row>
+    <row r="35" spans="1:8" ht="243" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -1412,8 +1517,9 @@
       </c>
       <c r="F35"/>
       <c r="G35"/>
-    </row>
-    <row r="36" spans="1:7" ht="243" x14ac:dyDescent="0.15">
+      <c r="H35"/>
+    </row>
+    <row r="36" spans="1:8" ht="243" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -1431,8 +1537,9 @@
       </c>
       <c r="F36"/>
       <c r="G36"/>
-    </row>
-    <row r="37" spans="1:7" ht="243" x14ac:dyDescent="0.15">
+      <c r="H36"/>
+    </row>
+    <row r="37" spans="1:8" ht="243" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -1450,8 +1557,9 @@
       </c>
       <c r="F37"/>
       <c r="G37"/>
-    </row>
-    <row r="38" spans="1:7" ht="243" x14ac:dyDescent="0.15">
+      <c r="H37"/>
+    </row>
+    <row r="38" spans="1:8" ht="243" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -1469,8 +1577,9 @@
       </c>
       <c r="F38"/>
       <c r="G38"/>
-    </row>
-    <row r="39" spans="1:7" ht="243" x14ac:dyDescent="0.15">
+      <c r="H38"/>
+    </row>
+    <row r="39" spans="1:8" ht="243" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -1488,8 +1597,9 @@
       </c>
       <c r="F39"/>
       <c r="G39"/>
-    </row>
-    <row r="40" spans="1:7" ht="243" x14ac:dyDescent="0.15">
+      <c r="H39"/>
+    </row>
+    <row r="40" spans="1:8" ht="243" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -1507,8 +1617,9 @@
       </c>
       <c r="F40"/>
       <c r="G40"/>
-    </row>
-    <row r="41" spans="1:7" ht="243" x14ac:dyDescent="0.15">
+      <c r="H40"/>
+    </row>
+    <row r="41" spans="1:8" ht="243" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -1526,8 +1637,9 @@
       </c>
       <c r="F41"/>
       <c r="G41"/>
-    </row>
-    <row r="42" spans="1:7" ht="243" x14ac:dyDescent="0.15">
+      <c r="H41"/>
+    </row>
+    <row r="42" spans="1:8" ht="243" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -1545,8 +1657,9 @@
       </c>
       <c r="F42"/>
       <c r="G42"/>
-    </row>
-    <row r="43" spans="1:7" ht="243" x14ac:dyDescent="0.15">
+      <c r="H42"/>
+    </row>
+    <row r="43" spans="1:8" ht="243" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -1564,8 +1677,9 @@
       </c>
       <c r="F43"/>
       <c r="G43"/>
-    </row>
-    <row r="44" spans="1:7" ht="243" x14ac:dyDescent="0.15">
+      <c r="H43"/>
+    </row>
+    <row r="44" spans="1:8" ht="243" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -1583,8 +1697,9 @@
       </c>
       <c r="F44"/>
       <c r="G44"/>
-    </row>
-    <row r="45" spans="1:7" ht="243" x14ac:dyDescent="0.15">
+      <c r="H44"/>
+    </row>
+    <row r="45" spans="1:8" ht="243" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -1602,8 +1717,9 @@
       </c>
       <c r="F45"/>
       <c r="G45"/>
-    </row>
-    <row r="46" spans="1:7" ht="243" x14ac:dyDescent="0.15">
+      <c r="H45"/>
+    </row>
+    <row r="46" spans="1:8" ht="243" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -1621,8 +1737,9 @@
       </c>
       <c r="F46"/>
       <c r="G46"/>
-    </row>
-    <row r="47" spans="1:7" ht="243" x14ac:dyDescent="0.15">
+      <c r="H46"/>
+    </row>
+    <row r="47" spans="1:8" ht="243" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -1640,8 +1757,9 @@
       </c>
       <c r="F47"/>
       <c r="G47"/>
-    </row>
-    <row r="48" spans="1:7" ht="243" x14ac:dyDescent="0.15">
+      <c r="H47"/>
+    </row>
+    <row r="48" spans="1:8" ht="243" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -1659,8 +1777,9 @@
       </c>
       <c r="F48"/>
       <c r="G48"/>
-    </row>
-    <row r="49" spans="1:7" ht="243" x14ac:dyDescent="0.15">
+      <c r="H48"/>
+    </row>
+    <row r="49" spans="1:8" ht="243" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -1678,8 +1797,9 @@
       </c>
       <c r="F49"/>
       <c r="G49"/>
-    </row>
-    <row r="50" spans="1:7" ht="243" x14ac:dyDescent="0.15">
+      <c r="H49"/>
+    </row>
+    <row r="50" spans="1:8" ht="243" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -1693,12 +1813,13 @@
         <v>20</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F50"/>
       <c r="G50"/>
-    </row>
-    <row r="51" spans="1:7" ht="243" x14ac:dyDescent="0.15">
+      <c r="H50"/>
+    </row>
+    <row r="51" spans="1:8" ht="243" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -1716,8 +1837,9 @@
       </c>
       <c r="F51"/>
       <c r="G51"/>
-    </row>
-    <row r="52" spans="1:7" ht="243" x14ac:dyDescent="0.15">
+      <c r="H51"/>
+    </row>
+    <row r="52" spans="1:8" ht="243" x14ac:dyDescent="0.15">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -1735,8 +1857,9 @@
       </c>
       <c r="F52"/>
       <c r="G52"/>
-    </row>
-    <row r="53" spans="1:7" ht="243" x14ac:dyDescent="0.15">
+      <c r="H52"/>
+    </row>
+    <row r="53" spans="1:8" ht="243" x14ac:dyDescent="0.15">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -1754,8 +1877,9 @@
       </c>
       <c r="F53"/>
       <c r="G53"/>
-    </row>
-    <row r="54" spans="1:7" ht="243" x14ac:dyDescent="0.15">
+      <c r="H53"/>
+    </row>
+    <row r="54" spans="1:8" ht="243" x14ac:dyDescent="0.15">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -1773,8 +1897,9 @@
       </c>
       <c r="F54"/>
       <c r="G54"/>
-    </row>
-    <row r="55" spans="1:7" ht="243" x14ac:dyDescent="0.15">
+      <c r="H54"/>
+    </row>
+    <row r="55" spans="1:8" ht="243" x14ac:dyDescent="0.15">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -1792,8 +1917,9 @@
       </c>
       <c r="F55"/>
       <c r="G55"/>
-    </row>
-    <row r="56" spans="1:7" ht="243" x14ac:dyDescent="0.15">
+      <c r="H55"/>
+    </row>
+    <row r="56" spans="1:8" ht="243" x14ac:dyDescent="0.15">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -1811,8 +1937,9 @@
       </c>
       <c r="F56"/>
       <c r="G56"/>
-    </row>
-    <row r="57" spans="1:7" ht="243" x14ac:dyDescent="0.15">
+      <c r="H56"/>
+    </row>
+    <row r="57" spans="1:8" ht="243" x14ac:dyDescent="0.15">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -1830,8 +1957,9 @@
       </c>
       <c r="F57"/>
       <c r="G57"/>
-    </row>
-    <row r="58" spans="1:7" ht="243" x14ac:dyDescent="0.15">
+      <c r="H57"/>
+    </row>
+    <row r="58" spans="1:8" ht="243" x14ac:dyDescent="0.15">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -1849,8 +1977,9 @@
       </c>
       <c r="F58"/>
       <c r="G58"/>
-    </row>
-    <row r="59" spans="1:7" ht="243" x14ac:dyDescent="0.15">
+      <c r="H58"/>
+    </row>
+    <row r="59" spans="1:8" ht="243" x14ac:dyDescent="0.15">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -1864,12 +1993,13 @@
         <v>20</v>
       </c>
       <c r="E59" s="14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F59"/>
       <c r="G59"/>
-    </row>
-    <row r="60" spans="1:7" ht="243" x14ac:dyDescent="0.15">
+      <c r="H59"/>
+    </row>
+    <row r="60" spans="1:8" ht="243" x14ac:dyDescent="0.15">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -1883,12 +2013,13 @@
         <v>20</v>
       </c>
       <c r="E60" s="14" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F60"/>
       <c r="G60"/>
-    </row>
-    <row r="61" spans="1:7" ht="243" x14ac:dyDescent="0.15">
+      <c r="H60"/>
+    </row>
+    <row r="61" spans="1:8" ht="243" x14ac:dyDescent="0.15">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -1899,13 +2030,14 @@
         <v>9</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E61" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F61"/>
       <c r="G61"/>
+      <c r="H61"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E2"/>

--- a/src/main/resources/apibatch.xlsx
+++ b/src/main/resources/apibatch.xlsx
@@ -5,17 +5,21 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Jarvan\Desktop\svn\trunk\apiFrame\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Jarvan\Desktop\7\trunk\apiFrame\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21450" windowHeight="6225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21450" windowHeight="6225" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="api_info" sheetId="1" r:id="rId1"/>
-    <sheet name="request_data" sheetId="2" r:id="rId2"/>
+    <sheet name="request_data" sheetId="4" r:id="rId2"/>
+    <sheet name="getCountry" sheetId="6" r:id="rId3"/>
+    <sheet name="c" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'c'!$A$1:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">getCountry!$A$1:$E$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">request_data!$A$1:$E$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -23,15 +27,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="103">
   <si>
     <t>post</t>
   </si>
   <si>
     <t>CaseId(用例编号)</t>
-  </si>
-  <si>
-    <t>RequestData(接口请求参数)</t>
   </si>
   <si>
     <t>1</t>
@@ -238,12 +239,194 @@
     <t>post</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>RequestData(接口请求参数)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,6 +437,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -262,6 +446,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -273,13 +458,25 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -295,7 +492,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -344,6 +541,18 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -652,8 +861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" activeCellId="1" sqref="B3 C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -667,16 +876,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -684,13 +893,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -698,13 +907,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -766,15 +975,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="6.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6.625" style="2" customWidth="1"/>
     <col min="4" max="4" width="51.625" style="3" customWidth="1"/>
     <col min="5" max="5" width="14" style="3" customWidth="1"/>
     <col min="6" max="8" width="34.5" style="1" customWidth="1"/>
@@ -785,1235 +995,1235 @@
     <col min="13" max="16384" width="31.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="115.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:12" s="20" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="8" t="s">
+      <c r="F1" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="16" t="s">
+      <c r="B2" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="368.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="16" t="s">
+      <c r="E2" s="14" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>24</v>
       </c>
       <c r="F2"/>
       <c r="G2"/>
       <c r="H2"/>
       <c r="I2" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J2" s="9"/>
       <c r="K2" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L2" s="9"/>
     </row>
-    <row r="3" spans="1:12" ht="297" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>24</v>
       </c>
       <c r="F3" s="14"/>
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J3" s="9"/>
       <c r="K3" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L3" s="9"/>
     </row>
-    <row r="4" spans="1:12" ht="310.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4"/>
     </row>
-    <row r="5" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5"/>
       <c r="G5"/>
       <c r="H5"/>
     </row>
-    <row r="6" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6"/>
       <c r="G6"/>
       <c r="H6"/>
     </row>
-    <row r="7" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="14" t="s">
         <v>28</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>29</v>
       </c>
       <c r="F7"/>
       <c r="G7"/>
       <c r="H7"/>
     </row>
-    <row r="8" spans="1:12" ht="243" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F8"/>
       <c r="G8"/>
       <c r="H8"/>
     </row>
-    <row r="9" spans="1:12" ht="243" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F9"/>
       <c r="G9"/>
       <c r="H9"/>
     </row>
-    <row r="10" spans="1:12" ht="243" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10"/>
       <c r="G10"/>
       <c r="H10"/>
     </row>
-    <row r="11" spans="1:12" ht="243" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11"/>
       <c r="G11"/>
       <c r="H11"/>
     </row>
-    <row r="12" spans="1:12" ht="243" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F12"/>
       <c r="G12"/>
       <c r="H12"/>
     </row>
-    <row r="13" spans="1:12" ht="243" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F13"/>
       <c r="G13"/>
       <c r="H13"/>
     </row>
-    <row r="14" spans="1:12" ht="243" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F14"/>
       <c r="G14"/>
       <c r="H14"/>
     </row>
-    <row r="15" spans="1:12" ht="243" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F15"/>
       <c r="G15"/>
       <c r="H15"/>
     </row>
-    <row r="16" spans="1:12" ht="243" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F16"/>
       <c r="G16"/>
       <c r="H16"/>
     </row>
-    <row r="17" spans="1:8" ht="243" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F17"/>
       <c r="G17"/>
       <c r="H17"/>
     </row>
-    <row r="18" spans="1:8" ht="243" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F18"/>
       <c r="G18"/>
       <c r="H18"/>
     </row>
-    <row r="19" spans="1:8" ht="243" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F19"/>
       <c r="G19"/>
       <c r="H19"/>
     </row>
-    <row r="20" spans="1:8" ht="243" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F20"/>
       <c r="G20"/>
       <c r="H20"/>
     </row>
-    <row r="21" spans="1:8" ht="243" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F21"/>
       <c r="G21"/>
       <c r="H21"/>
     </row>
-    <row r="22" spans="1:8" ht="243" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F22"/>
       <c r="G22"/>
       <c r="H22"/>
     </row>
-    <row r="23" spans="1:8" ht="243" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F23"/>
       <c r="G23"/>
       <c r="H23"/>
     </row>
-    <row r="24" spans="1:8" ht="243" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F24"/>
       <c r="G24"/>
       <c r="H24"/>
     </row>
-    <row r="25" spans="1:8" ht="243" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F25"/>
       <c r="G25"/>
       <c r="H25"/>
     </row>
-    <row r="26" spans="1:8" ht="243" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F26"/>
       <c r="G26"/>
       <c r="H26"/>
     </row>
-    <row r="27" spans="1:8" ht="243" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F27"/>
       <c r="G27"/>
       <c r="H27"/>
     </row>
-    <row r="28" spans="1:8" ht="243" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F28"/>
       <c r="G28"/>
       <c r="H28"/>
     </row>
-    <row r="29" spans="1:8" ht="243" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F29"/>
       <c r="G29"/>
       <c r="H29"/>
     </row>
-    <row r="30" spans="1:8" ht="243" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F30"/>
       <c r="G30"/>
       <c r="H30"/>
     </row>
-    <row r="31" spans="1:8" ht="243" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F31"/>
       <c r="G31"/>
       <c r="H31"/>
     </row>
-    <row r="32" spans="1:8" ht="243" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F32"/>
       <c r="G32"/>
       <c r="H32"/>
     </row>
-    <row r="33" spans="1:8" ht="243" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F33"/>
       <c r="G33"/>
       <c r="H33"/>
     </row>
-    <row r="34" spans="1:8" ht="243" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F34"/>
       <c r="G34"/>
       <c r="H34"/>
     </row>
-    <row r="35" spans="1:8" ht="243" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>34</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F35"/>
       <c r="G35"/>
       <c r="H35"/>
     </row>
-    <row r="36" spans="1:8" ht="243" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F36"/>
       <c r="G36"/>
       <c r="H36"/>
     </row>
-    <row r="37" spans="1:8" ht="243" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F37"/>
       <c r="G37"/>
       <c r="H37"/>
     </row>
-    <row r="38" spans="1:8" ht="243" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>37</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F38"/>
       <c r="G38"/>
       <c r="H38"/>
     </row>
-    <row r="39" spans="1:8" ht="243" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>38</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F39"/>
       <c r="G39"/>
       <c r="H39"/>
     </row>
-    <row r="40" spans="1:8" ht="243" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>39</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F40"/>
       <c r="G40"/>
       <c r="H40"/>
     </row>
-    <row r="41" spans="1:8" ht="243" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>40</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F41"/>
       <c r="G41"/>
       <c r="H41"/>
     </row>
-    <row r="42" spans="1:8" ht="243" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>41</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F42"/>
       <c r="G42"/>
       <c r="H42"/>
     </row>
-    <row r="43" spans="1:8" ht="243" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>42</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F43"/>
       <c r="G43"/>
       <c r="H43"/>
     </row>
-    <row r="44" spans="1:8" ht="243" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>43</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F44"/>
       <c r="G44"/>
       <c r="H44"/>
     </row>
-    <row r="45" spans="1:8" ht="243" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>44</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F45"/>
       <c r="G45"/>
       <c r="H45"/>
     </row>
-    <row r="46" spans="1:8" ht="243" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
         <v>45</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F46"/>
       <c r="G46"/>
       <c r="H46"/>
     </row>
-    <row r="47" spans="1:8" ht="243" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>46</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F47"/>
       <c r="G47"/>
       <c r="H47"/>
     </row>
-    <row r="48" spans="1:8" ht="243" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
         <v>47</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F48"/>
       <c r="G48"/>
       <c r="H48"/>
     </row>
-    <row r="49" spans="1:8" ht="243" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>48</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F49"/>
       <c r="G49"/>
       <c r="H49"/>
     </row>
-    <row r="50" spans="1:8" ht="243" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
         <v>49</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F50"/>
       <c r="G50"/>
       <c r="H50"/>
     </row>
-    <row r="51" spans="1:8" ht="243" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>50</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F51"/>
       <c r="G51"/>
       <c r="H51"/>
     </row>
-    <row r="52" spans="1:8" ht="243" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="2">
         <v>51</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F52"/>
       <c r="G52"/>
       <c r="H52"/>
     </row>
-    <row r="53" spans="1:8" ht="243" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="2">
         <v>52</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F53"/>
       <c r="G53"/>
       <c r="H53"/>
     </row>
-    <row r="54" spans="1:8" ht="243" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="2">
         <v>53</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F54"/>
       <c r="G54"/>
       <c r="H54"/>
     </row>
-    <row r="55" spans="1:8" ht="243" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="2">
         <v>54</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F55"/>
       <c r="G55"/>
       <c r="H55"/>
     </row>
-    <row r="56" spans="1:8" ht="243" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="2">
         <v>55</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F56"/>
       <c r="G56"/>
       <c r="H56"/>
     </row>
-    <row r="57" spans="1:8" ht="243" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="2">
         <v>56</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E57" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F57"/>
       <c r="G57"/>
       <c r="H57"/>
     </row>
-    <row r="58" spans="1:8" ht="243" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="2">
         <v>57</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E58" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F58"/>
       <c r="G58"/>
       <c r="H58"/>
     </row>
-    <row r="59" spans="1:8" ht="243" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="2">
         <v>58</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E59" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F59"/>
       <c r="G59"/>
       <c r="H59"/>
     </row>
-    <row r="60" spans="1:8" ht="243" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="2">
         <v>59</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E60" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F60"/>
       <c r="G60"/>
@@ -2024,20 +2234,2606 @@
         <v>60</v>
       </c>
       <c r="B61" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E61" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E2"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L61"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C67" sqref="C67"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="31.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="6.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="51.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14" style="3" customWidth="1"/>
+    <col min="6" max="8" width="34.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="31.75" style="1"/>
+    <col min="10" max="10" width="21.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="31.75" style="1"/>
+    <col min="12" max="12" width="23.25" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="31.75" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="20" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>23</v>
       </c>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="9"/>
+      <c r="K2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="9"/>
+    </row>
+    <row r="3" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="14"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="9"/>
+      <c r="K3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="9"/>
+    </row>
+    <row r="4" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+    </row>
+    <row r="5" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+    </row>
+    <row r="6" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+    </row>
+    <row r="7" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+    </row>
+    <row r="8" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+    </row>
+    <row r="9" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+    </row>
+    <row r="10" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+    </row>
+    <row r="11" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+    </row>
+    <row r="12" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+    </row>
+    <row r="13" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+    </row>
+    <row r="14" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+    </row>
+    <row r="15" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+    </row>
+    <row r="16" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+    </row>
+    <row r="17" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+    </row>
+    <row r="18" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+    </row>
+    <row r="19" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+    </row>
+    <row r="20" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+    </row>
+    <row r="21" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+    </row>
+    <row r="22" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+    </row>
+    <row r="23" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+    </row>
+    <row r="24" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+    </row>
+    <row r="25" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+    </row>
+    <row r="26" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+    </row>
+    <row r="27" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+    </row>
+    <row r="28" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+    </row>
+    <row r="29" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+    </row>
+    <row r="30" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+    </row>
+    <row r="31" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+    </row>
+    <row r="32" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+    </row>
+    <row r="33" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+    </row>
+    <row r="34" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+    </row>
+    <row r="35" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+    </row>
+    <row r="36" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+    </row>
+    <row r="37" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+    </row>
+    <row r="38" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+    </row>
+    <row r="39" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+    </row>
+    <row r="40" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+    </row>
+    <row r="41" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+    </row>
+    <row r="42" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+    </row>
+    <row r="43" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+    </row>
+    <row r="44" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+    </row>
+    <row r="45" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45"/>
+    </row>
+    <row r="46" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46"/>
+    </row>
+    <row r="47" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="H47"/>
+    </row>
+    <row r="48" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="H48"/>
+    </row>
+    <row r="49" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49"/>
+    </row>
+    <row r="50" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50"/>
+    </row>
+    <row r="51" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="H51"/>
+    </row>
+    <row r="52" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F52"/>
+      <c r="G52"/>
+      <c r="H52"/>
+    </row>
+    <row r="53" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F53"/>
+      <c r="G53"/>
+      <c r="H53"/>
+    </row>
+    <row r="54" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F54"/>
+      <c r="G54"/>
+      <c r="H54"/>
+    </row>
+    <row r="55" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55"/>
+    </row>
+    <row r="56" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F56"/>
+      <c r="G56"/>
+      <c r="H56"/>
+    </row>
+    <row r="57" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F57"/>
+      <c r="G57"/>
+      <c r="H57"/>
+    </row>
+    <row r="58" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="H58"/>
+    </row>
+    <row r="59" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B59" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F59"/>
+      <c r="G59"/>
+      <c r="H59"/>
+    </row>
+    <row r="60" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B60" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60"/>
+    </row>
+    <row r="61" spans="1:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="2">
+        <v>60</v>
+      </c>
+      <c r="B61" s="16" t="s">
+        <v>22</v>
+      </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D61" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E61" s="14" t="s">
         <v>32</v>
-      </c>
-      <c r="E61" s="14" t="s">
-        <v>33</v>
       </c>
       <c r="F61"/>
       <c r="G61"/>
       <c r="H61"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E2"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A62" sqref="A62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="31.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="6.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="51.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14" style="3" customWidth="1"/>
+    <col min="6" max="8" width="34.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="31.75" style="1"/>
+    <col min="10" max="10" width="21.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="31.75" style="1"/>
+    <col min="12" max="12" width="23.25" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="31.75" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="20" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="9"/>
+      <c r="K2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="9"/>
+    </row>
+    <row r="3" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="14"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="9"/>
+      <c r="K3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="9"/>
+    </row>
+    <row r="4" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+    </row>
+    <row r="5" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+    </row>
+    <row r="6" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+    </row>
+    <row r="7" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+    </row>
+    <row r="8" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+    </row>
+    <row r="9" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+    </row>
+    <row r="10" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+    </row>
+    <row r="11" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+    </row>
+    <row r="12" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+    </row>
+    <row r="13" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+    </row>
+    <row r="14" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+    </row>
+    <row r="15" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+    </row>
+    <row r="16" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+    </row>
+    <row r="17" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+    </row>
+    <row r="18" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+    </row>
+    <row r="19" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+    </row>
+    <row r="20" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+    </row>
+    <row r="21" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+    </row>
+    <row r="22" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+    </row>
+    <row r="23" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+    </row>
+    <row r="24" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+    </row>
+    <row r="25" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+    </row>
+    <row r="26" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+    </row>
+    <row r="27" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+    </row>
+    <row r="28" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+    </row>
+    <row r="29" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+    </row>
+    <row r="30" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+    </row>
+    <row r="31" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+    </row>
+    <row r="32" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+    </row>
+    <row r="33" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+    </row>
+    <row r="34" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+    </row>
+    <row r="35" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+    </row>
+    <row r="36" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+    </row>
+    <row r="37" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+    </row>
+    <row r="38" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+    </row>
+    <row r="39" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+    </row>
+    <row r="40" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+    </row>
+    <row r="41" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+    </row>
+    <row r="42" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+    </row>
+    <row r="43" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+    </row>
+    <row r="44" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+    </row>
+    <row r="45" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45"/>
+    </row>
+    <row r="46" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46"/>
+    </row>
+    <row r="47" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="H47"/>
+    </row>
+    <row r="48" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="H48"/>
+    </row>
+    <row r="49" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49"/>
+    </row>
+    <row r="50" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50"/>
+    </row>
+    <row r="51" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="H51"/>
+    </row>
+    <row r="52" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F52"/>
+      <c r="G52"/>
+      <c r="H52"/>
+    </row>
+    <row r="53" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F53"/>
+      <c r="G53"/>
+      <c r="H53"/>
+    </row>
+    <row r="54" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F54"/>
+      <c r="G54"/>
+      <c r="H54"/>
+    </row>
+    <row r="55" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55"/>
+    </row>
+    <row r="56" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F56"/>
+      <c r="G56"/>
+      <c r="H56"/>
+    </row>
+    <row r="57" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F57"/>
+      <c r="G57"/>
+      <c r="H57"/>
+    </row>
+    <row r="58" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="H58"/>
+    </row>
+    <row r="59" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B59" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F59"/>
+      <c r="G59"/>
+      <c r="H59"/>
+    </row>
+    <row r="60" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B60" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60"/>
+    </row>
+    <row r="61" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="2">
+        <v>60</v>
+      </c>
+      <c r="B61" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E61" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F61"/>
+      <c r="G61"/>
+      <c r="H61"/>
+    </row>
+    <row r="62" spans="1:8" ht="243" x14ac:dyDescent="0.15">
+      <c r="A62" s="2">
+        <v>61</v>
+      </c>
+      <c r="B62" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E62" s="14" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E2"/>

--- a/src/main/resources/apibatch.xlsx
+++ b/src/main/resources/apibatch.xlsx
@@ -13,14 +13,14 @@
   </bookViews>
   <sheets>
     <sheet name="api_info" sheetId="1" r:id="rId1"/>
-    <sheet name="request_data" sheetId="4" r:id="rId2"/>
-    <sheet name="getCountry" sheetId="6" r:id="rId3"/>
-    <sheet name="c" sheetId="2" r:id="rId4"/>
+    <sheet name="getCountry" sheetId="4" r:id="rId2"/>
+    <sheet name="getRegion" sheetId="6" r:id="rId3"/>
+    <sheet name="getRegionForReceiving" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'c'!$A$1:$E$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">getCountry!$A$1:$E$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">request_data!$A$1:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">getCountry!$A$1:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">getRegion!$A$1:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">getRegionForReceiving!$A$1:$E$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -862,7 +862,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -976,8 +976,8 @@
   <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D63" sqref="D63"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3545,8 +3545,8 @@
   <dimension ref="A1:L62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A62" sqref="A62"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/src/main/resources/apibatch.xlsx
+++ b/src/main/resources/apibatch.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21450" windowHeight="6225" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21450" windowHeight="6225"/>
   </bookViews>
   <sheets>
     <sheet name="api_info" sheetId="1" r:id="rId1"/>
@@ -22,15 +22,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">getRegion!$A$1:$E$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">getRegionForReceiving!$A$1:$E$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="103">
-  <si>
-    <t>post</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="107">
   <si>
     <t>CaseId(用例编号)</t>
   </si>
@@ -233,13 +230,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://test-oms.eminxing.com:50080/</t>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RequestData(接口请求参数)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -419,6 +409,34 @@
   </si>
   <si>
     <t>{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postXml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postJson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LabelPrintService</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;paramsJson&gt;{"product_sku":"API_sku_AutoTest001","reference_no":"","product_title":"意大利怀表","product_weight":"0.35","product_length":"29.70","product_width":"21.00","product_height":"4","contain_battery":"0","product_declared_value":"10.5","product_declared_name":"MenTshirt","cat_lang":"en","cat_id_level0":"400001","cat_id_level1":"500013","cat_id_level2":"600788","verify":"0","hs_code":"code123","warning_qty":"10"}&lt;/paramsJson&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://test-oms.eminxing.com:50080/default/svc/web-service</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -461,6 +479,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -861,8 +880,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -876,16 +896,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -893,13 +913,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -907,13 +927,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>41</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -965,9 +985,10 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -976,8 +997,8 @@
   <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D58" sqref="D58"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -997,95 +1018,95 @@
   <sheetData>
     <row r="1" spans="1:12" s="20" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" s="19" t="s">
+      <c r="K1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="L1" s="19" t="s">
         <v>12</v>
-      </c>
-      <c r="L1" s="19" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>22</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>23</v>
       </c>
       <c r="F2"/>
       <c r="G2"/>
       <c r="H2"/>
       <c r="I2" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J2" s="9"/>
       <c r="K2" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L2" s="9"/>
     </row>
     <row r="3" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>23</v>
       </c>
       <c r="F3" s="14"/>
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J3" s="9"/>
       <c r="K3" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L3" s="9"/>
     </row>
@@ -1094,16 +1115,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4"/>
       <c r="G4"/>
@@ -1114,16 +1135,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5"/>
       <c r="G5"/>
@@ -1134,16 +1155,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6"/>
       <c r="G6"/>
@@ -1154,16 +1175,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="14" t="s">
         <v>27</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>28</v>
       </c>
       <c r="F7"/>
       <c r="G7"/>
@@ -1174,16 +1195,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F8"/>
       <c r="G8"/>
@@ -1194,16 +1215,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F9"/>
       <c r="G9"/>
@@ -1214,16 +1235,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F10"/>
       <c r="G10"/>
@@ -1234,16 +1255,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F11"/>
       <c r="G11"/>
@@ -1254,16 +1275,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F12"/>
       <c r="G12"/>
@@ -1274,16 +1295,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F13"/>
       <c r="G13"/>
@@ -1294,16 +1315,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F14"/>
       <c r="G14"/>
@@ -1314,16 +1335,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F15"/>
       <c r="G15"/>
@@ -1334,16 +1355,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F16"/>
       <c r="G16"/>
@@ -1354,16 +1375,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F17"/>
       <c r="G17"/>
@@ -1374,16 +1395,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F18"/>
       <c r="G18"/>
@@ -1394,16 +1415,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F19"/>
       <c r="G19"/>
@@ -1414,16 +1435,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F20"/>
       <c r="G20"/>
@@ -1434,16 +1455,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F21"/>
       <c r="G21"/>
@@ -1454,16 +1475,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F22"/>
       <c r="G22"/>
@@ -1474,16 +1495,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F23"/>
       <c r="G23"/>
@@ -1494,16 +1515,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F24"/>
       <c r="G24"/>
@@ -1514,16 +1535,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F25"/>
       <c r="G25"/>
@@ -1534,16 +1555,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F26"/>
       <c r="G26"/>
@@ -1554,16 +1575,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F27"/>
       <c r="G27"/>
@@ -1574,16 +1595,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F28"/>
       <c r="G28"/>
@@ -1594,16 +1615,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F29"/>
       <c r="G29"/>
@@ -1614,16 +1635,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F30"/>
       <c r="G30"/>
@@ -1634,16 +1655,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F31"/>
       <c r="G31"/>
@@ -1654,16 +1675,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F32"/>
       <c r="G32"/>
@@ -1674,16 +1695,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F33"/>
       <c r="G33"/>
@@ -1694,16 +1715,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F34"/>
       <c r="G34"/>
@@ -1714,16 +1735,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F35"/>
       <c r="G35"/>
@@ -1734,16 +1755,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F36"/>
       <c r="G36"/>
@@ -1754,16 +1775,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F37"/>
       <c r="G37"/>
@@ -1774,16 +1795,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F38"/>
       <c r="G38"/>
@@ -1794,16 +1815,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F39"/>
       <c r="G39"/>
@@ -1814,16 +1835,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F40"/>
       <c r="G40"/>
@@ -1834,16 +1855,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F41"/>
       <c r="G41"/>
@@ -1854,16 +1875,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F42"/>
       <c r="G42"/>
@@ -1874,16 +1895,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F43"/>
       <c r="G43"/>
@@ -1894,16 +1915,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F44"/>
       <c r="G44"/>
@@ -1914,16 +1935,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F45"/>
       <c r="G45"/>
@@ -1934,16 +1955,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F46"/>
       <c r="G46"/>
@@ -1954,16 +1975,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F47"/>
       <c r="G47"/>
@@ -1974,16 +1995,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F48"/>
       <c r="G48"/>
@@ -1994,16 +2015,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F49"/>
       <c r="G49"/>
@@ -2014,16 +2035,16 @@
         <v>49</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F50"/>
       <c r="G50"/>
@@ -2034,16 +2055,16 @@
         <v>50</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F51"/>
       <c r="G51"/>
@@ -2054,16 +2075,16 @@
         <v>51</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F52"/>
       <c r="G52"/>
@@ -2074,16 +2095,16 @@
         <v>52</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F53"/>
       <c r="G53"/>
@@ -2094,16 +2115,16 @@
         <v>53</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F54"/>
       <c r="G54"/>
@@ -2114,16 +2135,16 @@
         <v>54</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F55"/>
       <c r="G55"/>
@@ -2134,16 +2155,16 @@
         <v>55</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F56"/>
       <c r="G56"/>
@@ -2154,16 +2175,16 @@
         <v>56</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E57" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F57"/>
       <c r="G57"/>
@@ -2174,16 +2195,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E58" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F58"/>
       <c r="G58"/>
@@ -2194,16 +2215,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E59" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F59"/>
       <c r="G59"/>
@@ -2214,16 +2235,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E60" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F60"/>
       <c r="G60"/>
@@ -2234,16 +2255,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E61" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2259,7 +2280,7 @@
   <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
@@ -2280,113 +2301,113 @@
   <sheetData>
     <row r="1" spans="1:12" s="20" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" s="19" t="s">
+      <c r="K1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="L1" s="19" t="s">
         <v>12</v>
-      </c>
-      <c r="L1" s="19" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>22</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>23</v>
       </c>
       <c r="F2"/>
       <c r="G2"/>
       <c r="H2"/>
       <c r="I2" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J2" s="9"/>
       <c r="K2" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L2" s="9"/>
     </row>
     <row r="3" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B3" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>23</v>
       </c>
       <c r="F3" s="14"/>
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J3" s="9"/>
       <c r="K3" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L3" s="9"/>
     </row>
     <row r="4" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4"/>
       <c r="G4"/>
@@ -2394,19 +2415,19 @@
     </row>
     <row r="5" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5"/>
       <c r="G5"/>
@@ -2414,19 +2435,19 @@
     </row>
     <row r="6" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6"/>
       <c r="G6"/>
@@ -2434,19 +2455,19 @@
     </row>
     <row r="7" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="14" t="s">
         <v>27</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>28</v>
       </c>
       <c r="F7"/>
       <c r="G7"/>
@@ -2454,19 +2475,19 @@
     </row>
     <row r="8" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F8"/>
       <c r="G8"/>
@@ -2474,19 +2495,19 @@
     </row>
     <row r="9" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F9"/>
       <c r="G9"/>
@@ -2494,19 +2515,19 @@
     </row>
     <row r="10" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F10"/>
       <c r="G10"/>
@@ -2514,19 +2535,19 @@
     </row>
     <row r="11" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F11"/>
       <c r="G11"/>
@@ -2534,19 +2555,19 @@
     </row>
     <row r="12" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F12"/>
       <c r="G12"/>
@@ -2554,19 +2575,19 @@
     </row>
     <row r="13" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F13"/>
       <c r="G13"/>
@@ -2574,19 +2595,19 @@
     </row>
     <row r="14" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F14"/>
       <c r="G14"/>
@@ -2594,19 +2615,19 @@
     </row>
     <row r="15" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F15"/>
       <c r="G15"/>
@@ -2614,19 +2635,19 @@
     </row>
     <row r="16" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F16"/>
       <c r="G16"/>
@@ -2634,19 +2655,19 @@
     </row>
     <row r="17" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F17"/>
       <c r="G17"/>
@@ -2654,19 +2675,19 @@
     </row>
     <row r="18" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F18"/>
       <c r="G18"/>
@@ -2674,19 +2695,19 @@
     </row>
     <row r="19" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F19"/>
       <c r="G19"/>
@@ -2694,19 +2715,19 @@
     </row>
     <row r="20" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F20"/>
       <c r="G20"/>
@@ -2714,19 +2735,19 @@
     </row>
     <row r="21" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F21"/>
       <c r="G21"/>
@@ -2734,19 +2755,19 @@
     </row>
     <row r="22" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F22"/>
       <c r="G22"/>
@@ -2754,19 +2775,19 @@
     </row>
     <row r="23" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F23"/>
       <c r="G23"/>
@@ -2774,19 +2795,19 @@
     </row>
     <row r="24" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F24"/>
       <c r="G24"/>
@@ -2794,19 +2815,19 @@
     </row>
     <row r="25" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F25"/>
       <c r="G25"/>
@@ -2814,19 +2835,19 @@
     </row>
     <row r="26" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F26"/>
       <c r="G26"/>
@@ -2834,19 +2855,19 @@
     </row>
     <row r="27" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F27"/>
       <c r="G27"/>
@@ -2854,19 +2875,19 @@
     </row>
     <row r="28" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F28"/>
       <c r="G28"/>
@@ -2874,19 +2895,19 @@
     </row>
     <row r="29" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F29"/>
       <c r="G29"/>
@@ -2894,19 +2915,19 @@
     </row>
     <row r="30" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F30"/>
       <c r="G30"/>
@@ -2914,19 +2935,19 @@
     </row>
     <row r="31" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F31"/>
       <c r="G31"/>
@@ -2934,19 +2955,19 @@
     </row>
     <row r="32" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F32"/>
       <c r="G32"/>
@@ -2954,19 +2975,19 @@
     </row>
     <row r="33" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F33"/>
       <c r="G33"/>
@@ -2974,19 +2995,19 @@
     </row>
     <row r="34" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F34"/>
       <c r="G34"/>
@@ -2994,19 +3015,19 @@
     </row>
     <row r="35" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F35"/>
       <c r="G35"/>
@@ -3014,19 +3035,19 @@
     </row>
     <row r="36" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F36"/>
       <c r="G36"/>
@@ -3034,19 +3055,19 @@
     </row>
     <row r="37" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F37"/>
       <c r="G37"/>
@@ -3054,19 +3075,19 @@
     </row>
     <row r="38" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F38"/>
       <c r="G38"/>
@@ -3074,19 +3095,19 @@
     </row>
     <row r="39" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F39"/>
       <c r="G39"/>
@@ -3094,19 +3115,19 @@
     </row>
     <row r="40" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F40"/>
       <c r="G40"/>
@@ -3114,19 +3135,19 @@
     </row>
     <row r="41" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F41"/>
       <c r="G41"/>
@@ -3134,19 +3155,19 @@
     </row>
     <row r="42" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F42"/>
       <c r="G42"/>
@@ -3154,19 +3175,19 @@
     </row>
     <row r="43" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F43"/>
       <c r="G43"/>
@@ -3174,19 +3195,19 @@
     </row>
     <row r="44" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F44"/>
       <c r="G44"/>
@@ -3194,19 +3215,19 @@
     </row>
     <row r="45" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F45"/>
       <c r="G45"/>
@@ -3214,19 +3235,19 @@
     </row>
     <row r="46" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F46"/>
       <c r="G46"/>
@@ -3234,19 +3255,19 @@
     </row>
     <row r="47" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F47"/>
       <c r="G47"/>
@@ -3254,19 +3275,19 @@
     </row>
     <row r="48" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F48"/>
       <c r="G48"/>
@@ -3274,19 +3295,19 @@
     </row>
     <row r="49" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F49"/>
       <c r="G49"/>
@@ -3294,19 +3315,19 @@
     </row>
     <row r="50" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F50"/>
       <c r="G50"/>
@@ -3314,19 +3335,19 @@
     </row>
     <row r="51" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F51"/>
       <c r="G51"/>
@@ -3334,19 +3355,19 @@
     </row>
     <row r="52" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F52"/>
       <c r="G52"/>
@@ -3354,19 +3375,19 @@
     </row>
     <row r="53" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F53"/>
       <c r="G53"/>
@@ -3374,19 +3395,19 @@
     </row>
     <row r="54" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F54"/>
       <c r="G54"/>
@@ -3394,19 +3415,19 @@
     </row>
     <row r="55" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F55"/>
       <c r="G55"/>
@@ -3414,19 +3435,19 @@
     </row>
     <row r="56" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F56"/>
       <c r="G56"/>
@@ -3434,19 +3455,19 @@
     </row>
     <row r="57" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E57" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F57"/>
       <c r="G57"/>
@@ -3454,19 +3475,19 @@
     </row>
     <row r="58" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E58" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F58"/>
       <c r="G58"/>
@@ -3474,19 +3495,19 @@
     </row>
     <row r="59" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E59" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F59"/>
       <c r="G59"/>
@@ -3494,19 +3515,19 @@
     </row>
     <row r="60" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E60" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F60"/>
       <c r="G60"/>
@@ -3517,16 +3538,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E61" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F61"/>
       <c r="G61"/>
@@ -3542,11 +3563,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L62"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D45" sqref="D45"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3566,1274 +3587,69 @@
   <sheetData>
     <row r="1" spans="1:12" s="20" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" s="19" t="s">
+      <c r="K1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="L1" s="19" t="s">
         <v>12</v>
-      </c>
-      <c r="L1" s="19" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="F2"/>
       <c r="G2"/>
       <c r="H2"/>
       <c r="I2" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J2" s="9"/>
       <c r="K2" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L2" s="9"/>
-    </row>
-    <row r="3" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="14"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="9"/>
-    </row>
-    <row r="4" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-    </row>
-    <row r="5" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-    </row>
-    <row r="6" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-    </row>
-    <row r="7" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-    </row>
-    <row r="8" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
-    </row>
-    <row r="9" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
-    </row>
-    <row r="10" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
-    </row>
-    <row r="11" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
-    </row>
-    <row r="12" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-    </row>
-    <row r="13" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
-    </row>
-    <row r="14" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14"/>
-    </row>
-    <row r="15" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15"/>
-    </row>
-    <row r="16" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16"/>
-    </row>
-    <row r="17" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
-    </row>
-    <row r="18" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18"/>
-    </row>
-    <row r="19" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-    </row>
-    <row r="20" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
-    </row>
-    <row r="21" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
-    </row>
-    <row r="22" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-    </row>
-    <row r="23" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23"/>
-    </row>
-    <row r="24" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24"/>
-      <c r="G24"/>
-      <c r="H24"/>
-    </row>
-    <row r="25" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25"/>
-    </row>
-    <row r="26" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F26"/>
-      <c r="G26"/>
-      <c r="H26"/>
-    </row>
-    <row r="27" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F27"/>
-      <c r="G27"/>
-      <c r="H27"/>
-    </row>
-    <row r="28" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F28"/>
-      <c r="G28"/>
-      <c r="H28"/>
-    </row>
-    <row r="29" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F29"/>
-      <c r="G29"/>
-      <c r="H29"/>
-    </row>
-    <row r="30" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F30"/>
-      <c r="G30"/>
-      <c r="H30"/>
-    </row>
-    <row r="31" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F31"/>
-      <c r="G31"/>
-      <c r="H31"/>
-    </row>
-    <row r="32" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F32"/>
-      <c r="G32"/>
-      <c r="H32"/>
-    </row>
-    <row r="33" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F33"/>
-      <c r="G33"/>
-      <c r="H33"/>
-    </row>
-    <row r="34" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F34"/>
-      <c r="G34"/>
-      <c r="H34"/>
-    </row>
-    <row r="35" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F35"/>
-      <c r="G35"/>
-      <c r="H35"/>
-    </row>
-    <row r="36" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B36" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F36"/>
-      <c r="G36"/>
-      <c r="H36"/>
-    </row>
-    <row r="37" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B37" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F37"/>
-      <c r="G37"/>
-      <c r="H37"/>
-    </row>
-    <row r="38" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B38" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E38" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F38"/>
-      <c r="G38"/>
-      <c r="H38"/>
-    </row>
-    <row r="39" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B39" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E39" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F39"/>
-      <c r="G39"/>
-      <c r="H39"/>
-    </row>
-    <row r="40" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B40" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E40" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F40"/>
-      <c r="G40"/>
-      <c r="H40"/>
-    </row>
-    <row r="41" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B41" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E41" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F41"/>
-      <c r="G41"/>
-      <c r="H41"/>
-    </row>
-    <row r="42" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B42" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E42" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F42"/>
-      <c r="G42"/>
-      <c r="H42"/>
-    </row>
-    <row r="43" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B43" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E43" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F43"/>
-      <c r="G43"/>
-      <c r="H43"/>
-    </row>
-    <row r="44" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B44" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F44"/>
-      <c r="G44"/>
-      <c r="H44"/>
-    </row>
-    <row r="45" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B45" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E45" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F45"/>
-      <c r="G45"/>
-      <c r="H45"/>
-    </row>
-    <row r="46" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B46" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E46" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F46"/>
-      <c r="G46"/>
-      <c r="H46"/>
-    </row>
-    <row r="47" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B47" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E47" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F47"/>
-      <c r="G47"/>
-      <c r="H47"/>
-    </row>
-    <row r="48" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B48" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E48" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F48"/>
-      <c r="G48"/>
-      <c r="H48"/>
-    </row>
-    <row r="49" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B49" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E49" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F49"/>
-      <c r="G49"/>
-      <c r="H49"/>
-    </row>
-    <row r="50" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B50" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E50" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F50"/>
-      <c r="G50"/>
-      <c r="H50"/>
-    </row>
-    <row r="51" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B51" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E51" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F51"/>
-      <c r="G51"/>
-      <c r="H51"/>
-    </row>
-    <row r="52" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B52" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E52" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F52"/>
-      <c r="G52"/>
-      <c r="H52"/>
-    </row>
-    <row r="53" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B53" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D53" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E53" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F53"/>
-      <c r="G53"/>
-      <c r="H53"/>
-    </row>
-    <row r="54" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B54" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D54" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E54" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F54"/>
-      <c r="G54"/>
-      <c r="H54"/>
-    </row>
-    <row r="55" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B55" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D55" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E55" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F55"/>
-      <c r="G55"/>
-      <c r="H55"/>
-    </row>
-    <row r="56" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B56" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E56" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F56"/>
-      <c r="G56"/>
-      <c r="H56"/>
-    </row>
-    <row r="57" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B57" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E57" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F57"/>
-      <c r="G57"/>
-      <c r="H57"/>
-    </row>
-    <row r="58" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B58" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D58" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E58" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F58"/>
-      <c r="G58"/>
-      <c r="H58"/>
-    </row>
-    <row r="59" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B59" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D59" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E59" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F59"/>
-      <c r="G59"/>
-      <c r="H59"/>
-    </row>
-    <row r="60" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B60" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E60" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F60"/>
-      <c r="G60"/>
-      <c r="H60"/>
-    </row>
-    <row r="61" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="2">
-        <v>60</v>
-      </c>
-      <c r="B61" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D61" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E61" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F61"/>
-      <c r="G61"/>
-      <c r="H61"/>
-    </row>
-    <row r="62" spans="1:8" ht="243" x14ac:dyDescent="0.15">
-      <c r="A62" s="2">
-        <v>61</v>
-      </c>
-      <c r="B62" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D62" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E62" s="14" t="s">
-        <v>32</v>
-      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E2"/>

--- a/src/main/resources/apibatch.xlsx
+++ b/src/main/resources/apibatch.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21450" windowHeight="6225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21450" windowHeight="6225" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="api_info" sheetId="1" r:id="rId1"/>
@@ -18,16 +18,16 @@
     <sheet name="getRegionForReceiving" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">getCountry!$A$1:$E$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">getRegion!$A$1:$E$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">getRegionForReceiving!$A$1:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">getCountry!$A$1:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">getRegion!$A$1:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">getRegionForReceiving!$A$1:$F$2</definedName>
   </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="192">
   <si>
     <t>CaseId(用例编号)</t>
   </si>
@@ -77,12 +77,6 @@
   <si>
     <t>AfterCheckResult(后置验证结果)</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"no":"1","sql":"select count(*) as totalNum from member where mobilephone='${mobilephone}'","expectedResult":[{"totalNum":"0"}]}]</t>
-  </si>
-  <si>
-    <t>[{"no":"1","sql":"select count(*) as totalNum from member where mobilephone='${mobilephone}'","expectedResult":[{"totalNum":"1"}]},{"no":"2","sql":"select LeaveAmount,Type from member where mobilephone='${mobilephone}'","expectedResult":[{"LeaveAmount":"0.00","Type":"1"}]}]</t>
   </si>
   <si>
     <t>LabelPrintService</t>
@@ -432,11 +426,327 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>http://test-oms.eminxing.com:50080/default/svc/web-service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShippingMarkNumber":"T5093-EKD1808071096-0001</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UseCaseTitle(用例标题)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UseCaseTitle(用例标题)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UseCaseTitle(用例标题)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>接口名称</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>获取国家列表</t>
+  </si>
+  <si>
+    <t>getCountry</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取中国区域列表</t>
+  </si>
+  <si>
+    <t>getRegion</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取支持揽收的区域</t>
+  </si>
+  <si>
+    <t>getRegionForReceiving</t>
+  </si>
+  <si>
+    <t>获取海外仓仓库代码</t>
+  </si>
+  <si>
+    <t>getWarehouse</t>
+  </si>
+  <si>
+    <t>获取中转仓仓库代码</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>getTransferWarehouse</t>
+  </si>
+  <si>
+    <t>获取订单运输方式</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>getShippingMethod</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取中转仓入库单派送方式</t>
+  </si>
+  <si>
+    <t>getSmcode</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取进出口商</t>
+  </si>
+  <si>
+    <t>getVatList</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取系统品类</t>
+  </si>
+  <si>
+    <t>getCategory</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取公司账户</t>
+  </si>
+  <si>
+    <t>getAccount</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取库存</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>getProductInventory</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建商品</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>addProduct</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改商品</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">editProduct </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取商品列表</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>getProductSkuList</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增商品进口国数据</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>addImportCountry</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印SKU</t>
+  </si>
+  <si>
+    <t>printSku</t>
+  </si>
+  <si>
+    <t>新建订单</t>
+  </si>
+  <si>
+    <t>createOrder</t>
+  </si>
+  <si>
+    <t>修改订单</t>
+  </si>
+  <si>
+    <t>modifyOrder</t>
+  </si>
+  <si>
+    <t>取消订单</t>
+  </si>
+  <si>
+    <t>cancelOrder</t>
+  </si>
+  <si>
+    <t>根据参考号获取单票订单信息</t>
+  </si>
+  <si>
+    <t>getOrderByRefCode</t>
+  </si>
+  <si>
+    <t>根据订单号获取单票订单信息</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>getOrderByCode</t>
+  </si>
+  <si>
+    <t>获取订单列表</t>
+  </si>
+  <si>
+    <t>getOrderList</t>
+  </si>
+  <si>
+    <t>运费试算</t>
+  </si>
+  <si>
+    <t>getCalculateFee</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址校验</t>
+  </si>
+  <si>
+    <t>verifyAddressInfo</t>
+  </si>
+  <si>
+    <t>售后单查询</t>
+  </si>
+  <si>
+    <t>searchReturnOrder</t>
+  </si>
+  <si>
+    <t>售后单列表</t>
+  </si>
+  <si>
+    <t>getAfterReturnOrders</t>
+  </si>
+  <si>
+    <t>废弃售后单</t>
+  </si>
+  <si>
+    <t>returnAfterOrderDiscard</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建售后单</t>
+  </si>
+  <si>
+    <t>createAfterReturnOrder</t>
+  </si>
+  <si>
+    <t>修改售后单</t>
+  </si>
+  <si>
+    <t>updateAfterReturnOrde</t>
+  </si>
+  <si>
+    <t>新建入库单</t>
+  </si>
+  <si>
+    <t>createGRN</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑入库单</t>
+  </si>
+  <si>
+    <t>modifyGRN</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>废弃入库单</t>
+  </si>
+  <si>
+    <t>delGRN</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取入库单列表</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>getGRNList</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取入库单明细</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>getGRNDetail</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除入库单箱唛</t>
+  </si>
+  <si>
+    <t>delAsnBox</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印箱唛</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">printGcReceivingBox </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>&lt;paramsJson&gt;{"product_sku":"API_sku_AutoTest001","reference_no":"","product_title":"意大利怀表","product_weight":"0.35","product_length":"29.70","product_width":"21.00","product_height":"4","contain_battery":"0","product_declared_value":"10.5","product_declared_name":"MenTshirt","cat_lang":"en","cat_id_level0":"400001","cat_id_level1":"500013","cat_id_level2":"600788","verify":"0","hs_code":"code123","warning_qty":"10"}&lt;/paramsJson&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://test-oms.eminxing.com:50080/default/svc/web-service</t>
+    <t>{
+  "Data": {
+    "BatchNumber": "T5093-EKD1808071096",
+    "ProductCode": "F-E(2DAY)ddd",
+    "WarehouseCode": "CA",
+    "ReferenceNumber": "",
+    "LabelType": 1
+  },
+  "Version": "0.0.0.3",
+  "RequestTime": "2017-09-21T08:00:38.0852597Z",
+  "RequestId": null
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"Version":"0.0.0.3","Data":{"OrderID":"TestFedex6069QW","ParcelInformation":{"Weight":"70","WeightUnit":1,"Length":"30","Width":"20","Height":"10","SizeUnit":1,"ExistDangeroursGoods":false,"ProductInformations":[{"Description":"phonecase","Quantity":1,"Weight":"1.000","WeightUnit":4,"Value":"0.0","Sku":"","Remark":"","ProductUrl":"","HSCode":"testcode"}]},"RecipientAddress":{"FirstName":"Shelley","LastName":"Bond ","Company":null,"StreetAddress":"3817 Harrison Street","StreetAddress2":"Address2","StreetAddress3":null,"City":"San Francisco","State":"CA","ZIPCode":"94122","Country":"US","PhoneNumber":"+1.4155669802","IsResidential":true},"ChannelName":"FEDEX","Token":"99999999999999999999999999999999","ServiceTypeCode":"FEDEX_GROUND","WarehouseCode":"CA","LabelMarkText":null,"RedundancyField":{"SignatureOption":""}}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"SignatureOption":""}}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appToken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e3b35ad93c4d3d831728ff1217d02b90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b39989ad17963d61d1c18267d3fc1605</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置区域</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -444,7 +754,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -483,8 +793,56 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -497,8 +855,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -506,12 +876,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -572,6 +966,39 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -878,23 +1305,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="B26:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="4" customWidth="1"/>
+    <col min="1" max="1" width="17.25" style="4" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="22.125" style="5" customWidth="1"/>
     <col min="3" max="3" width="17.75" style="4" customWidth="1"/>
     <col min="4" max="4" width="73.5" style="5" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="6"/>
+    <col min="5" max="5" width="9" style="6"/>
+    <col min="6" max="6" width="43.625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="6" style="6" customWidth="1"/>
+    <col min="8" max="8" width="26.875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="18.5" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -908,84 +1340,525 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E2" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="6"/>
       <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E4" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="G4" s="25">
+        <v>1</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="6"/>
       <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="G5" s="25">
+        <v>2</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
       <c r="D6" s="12"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="G6" s="25">
+        <v>3</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="I6" s="27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B7" s="6"/>
       <c r="D7" s="12"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="G7" s="25">
+        <v>4</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="6"/>
       <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="G8" s="25">
+        <v>5</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B9" s="6"/>
       <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="G9" s="25">
+        <v>6</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B10" s="6"/>
       <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="G10" s="25">
+        <v>7</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B11" s="6"/>
       <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="G11" s="25">
+        <v>8</v>
+      </c>
+      <c r="H11" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B12" s="6"/>
       <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="G12" s="25">
+        <v>9</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B13" s="6"/>
       <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="G13" s="25">
+        <v>10</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B14" s="6"/>
       <c r="D14" s="6"/>
+      <c r="G14" s="25">
+        <v>11</v>
+      </c>
+      <c r="H14" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="G15" s="25">
+        <v>12</v>
+      </c>
+      <c r="H15" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="G16" s="25">
+        <v>13</v>
+      </c>
+      <c r="H16" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="I16" s="26" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G17" s="25">
+        <v>14</v>
+      </c>
+      <c r="H17" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="I17" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G18" s="25">
+        <v>15</v>
+      </c>
+      <c r="H18" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="I18" s="30" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G19" s="25">
+        <v>16</v>
+      </c>
+      <c r="H19" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="I19" s="30" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G20" s="25">
+        <v>17</v>
+      </c>
+      <c r="H20" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="I20" s="26" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G21" s="25">
+        <v>18</v>
+      </c>
+      <c r="H21" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="I21" s="26" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G22" s="25">
+        <v>19</v>
+      </c>
+      <c r="H22" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="I22" s="26" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G23" s="25">
+        <v>20</v>
+      </c>
+      <c r="H23" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="I23" s="26" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G24" s="25">
+        <v>21</v>
+      </c>
+      <c r="H24" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="I24" s="26" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="25" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G25" s="25">
+        <v>22</v>
+      </c>
+      <c r="H25" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="I25" s="26" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="26" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G26" s="25">
+        <v>23</v>
+      </c>
+      <c r="H26" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="I26" s="26" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G27" s="25">
+        <v>24</v>
+      </c>
+      <c r="H27" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="I27" s="26" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="28" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G28" s="25">
+        <v>25</v>
+      </c>
+      <c r="H28" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="I28" s="26" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="29" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G29" s="25">
+        <v>26</v>
+      </c>
+      <c r="H29" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="I29" s="26" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="30" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G30" s="25">
+        <v>27</v>
+      </c>
+      <c r="H30" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="I30" s="26" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="31" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G31" s="25">
+        <v>28</v>
+      </c>
+      <c r="H31" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="I31" s="26" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="32" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G32" s="25">
+        <v>29</v>
+      </c>
+      <c r="H32" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="I32" s="26" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="33" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G33" s="25">
+        <v>30</v>
+      </c>
+      <c r="H33" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="I33" s="26" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="34" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G34" s="25">
+        <v>31</v>
+      </c>
+      <c r="H34" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="I34" s="26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="35" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G35" s="25">
+        <v>32</v>
+      </c>
+      <c r="H35" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="I35" s="26" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="36" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G36" s="25">
+        <v>33</v>
+      </c>
+      <c r="H36" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="I36" s="26" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="37" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G37" s="25">
+        <v>34</v>
+      </c>
+      <c r="H37" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="I37" s="26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="38" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G38" s="25">
+        <v>35</v>
+      </c>
+      <c r="H38" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="I38" s="30" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="39" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G39" s="25">
+        <v>36</v>
+      </c>
+      <c r="H39" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="I39" s="26" t="s">
+        <v>182</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:I2"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
     <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="H4" location="getCountry!A1" display="获取国家列表"/>
+    <hyperlink ref="H5" location="getRegion!A1" display="获取中国区域列表"/>
+    <hyperlink ref="H6" location="getRegionForReceiving!A1" display="获取支持揽收的区域"/>
+    <hyperlink ref="H7" location="getWarehouse!A1" display="获取海外仓仓库代码"/>
+    <hyperlink ref="H8" location="getTransferWarehouse!A1" display="获取中转仓仓库代码"/>
+    <hyperlink ref="H9" location="getShippingMethod!A1" display="获取订单运输方式"/>
+    <hyperlink ref="H10" location="getSmcode!A1" display="获取中转仓入库单派送方式"/>
+    <hyperlink ref="H11" location="getVatList!A1" display="获取进出口商"/>
+    <hyperlink ref="H12" location="getCategory!A1" display="获取系统品类"/>
+    <hyperlink ref="H13" location="getAccount!A1" display="获取公司账户"/>
+    <hyperlink ref="H14" location="getProductInventory!A1" display="获取库存"/>
+    <hyperlink ref="H15" location="addProduct!A1" display="创建商品"/>
+    <hyperlink ref="H16" location="editProduct!A1" display="修改商品"/>
+    <hyperlink ref="H17" location="getProductSkuList!A1" display="获取商品列表"/>
+    <hyperlink ref="H18" location="addImportCountry!A1" display="新增商品进口国数据"/>
+    <hyperlink ref="H20" location="createOrder!A1" display="新建订单"/>
+    <hyperlink ref="H21" location="modifyOrder!A1" display="修改订单"/>
+    <hyperlink ref="H22" location="cancelOrder!A1" display="取消订单"/>
+    <hyperlink ref="H23" location="getOrderByRefCode!A1" display="根据参考号获取单票订单信息"/>
+    <hyperlink ref="H24" location="getOrderByCode!A1" display="根据订单号获取单票订单信息"/>
+    <hyperlink ref="H25" location="getOrderList!A1" display="获取订单列表"/>
+    <hyperlink ref="H26" location="getCalculateFee!A1" display="运费试算"/>
+    <hyperlink ref="H27" location="verifyAddressInfo!A1" display="地址校验"/>
+    <hyperlink ref="H28" location="searchReturnOrder!A1" display="售后单查询"/>
+    <hyperlink ref="H29" location="getAfterReturnOrders!A1" display="售后单列表"/>
+    <hyperlink ref="H30" location="returnAfterOrderDiscard!A1" display="废弃售后单"/>
+    <hyperlink ref="H31" location="createAfterReturnOrder!A1" display="创建售后单"/>
+    <hyperlink ref="H32" location="updateAfterReturnOrder!A1" display="修改售后单"/>
+    <hyperlink ref="H19" location="printSku!A1" display="打印SKU"/>
+    <hyperlink ref="H33" location="createGRN!A1" display="新建入库单"/>
+    <hyperlink ref="H34" location="modifyGRN!A1" display="编辑入库单"/>
+    <hyperlink ref="H35" location="delGRN!A1" display="废弃入库单"/>
+    <hyperlink ref="H36" location="getGRNList!A1" display="获取入库单列表"/>
+    <hyperlink ref="H37" location="getGRNDetail!A1" display="获取入库单明细"/>
+    <hyperlink ref="H38" location="delAsnBox!A1" display="删除入库单箱唛"/>
+    <hyperlink ref="H39" location="printGcReceivingBox!A1" display="打印箱唛"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -994,29 +1867,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.75" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="6.75" style="2" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.625" style="2" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="6.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="51.625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14" style="3" customWidth="1"/>
-    <col min="6" max="8" width="34.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="31.75" style="1"/>
-    <col min="10" max="10" width="21.625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="31.75" style="1"/>
-    <col min="12" max="12" width="23.25" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="31.75" style="1"/>
+    <col min="4" max="4" width="27.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.75" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14" style="3" customWidth="1"/>
+    <col min="7" max="9" width="34.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="31.75" style="1"/>
+    <col min="11" max="11" width="21.625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="31.75" style="1"/>
+    <col min="13" max="13" width="23.25" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="31.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="20" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" s="20" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1026,1249 +1900,1246 @@
       <c r="C1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="17" t="s">
+      <c r="D1" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>28</v>
-      </c>
       <c r="J1" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="L1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="M1" s="19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>20</v>
+      </c>
       <c r="G2"/>
       <c r="H2"/>
-      <c r="I2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="10" t="s">
+      <c r="I2"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="9"/>
+    </row>
+    <row r="3" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="9"/>
-    </row>
-    <row r="3" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
-        <v>16</v>
-      </c>
       <c r="B3" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="14"/>
-      <c r="G3"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="14"/>
       <c r="H3"/>
-      <c r="I3" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" s="9"/>
-    </row>
-    <row r="4" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I3"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="9"/>
+    </row>
+    <row r="4" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4"/>
       <c r="G4"/>
       <c r="H4"/>
-    </row>
-    <row r="5" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I4"/>
+    </row>
+    <row r="5" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5"/>
       <c r="G5"/>
       <c r="H5"/>
-    </row>
-    <row r="6" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I5"/>
+    </row>
+    <row r="6" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6"/>
       <c r="G6"/>
       <c r="H6"/>
-    </row>
-    <row r="7" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I6"/>
+    </row>
+    <row r="7" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7"/>
+        <v>18</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>104</v>
+      </c>
       <c r="G7"/>
       <c r="H7"/>
-    </row>
-    <row r="8" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I7"/>
+    </row>
+    <row r="8" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8"/>
+      <c r="E8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G8"/>
       <c r="H8"/>
-    </row>
-    <row r="9" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I8"/>
+    </row>
+    <row r="9" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9"/>
+      <c r="E9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G9"/>
       <c r="H9"/>
-    </row>
-    <row r="10" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I9"/>
+    </row>
+    <row r="10" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10"/>
+      <c r="E10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G10"/>
       <c r="H10"/>
-    </row>
-    <row r="11" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I10"/>
+    </row>
+    <row r="11" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11"/>
+      <c r="E11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G11"/>
       <c r="H11"/>
-    </row>
-    <row r="12" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I11"/>
+    </row>
+    <row r="12" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12"/>
+      <c r="E12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G12"/>
       <c r="H12"/>
-    </row>
-    <row r="13" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I12"/>
+    </row>
+    <row r="13" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13"/>
+      <c r="E13" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G13"/>
       <c r="H13"/>
-    </row>
-    <row r="14" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I13"/>
+    </row>
+    <row r="14" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14"/>
+      <c r="E14" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G14"/>
       <c r="H14"/>
-    </row>
-    <row r="15" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I14"/>
+    </row>
+    <row r="15" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15"/>
+      <c r="E15" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G15"/>
       <c r="H15"/>
-    </row>
-    <row r="16" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I15"/>
+    </row>
+    <row r="16" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16"/>
+      <c r="E16" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G16"/>
       <c r="H16"/>
-    </row>
-    <row r="17" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I16"/>
+    </row>
+    <row r="17" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17"/>
+      <c r="E17" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G17"/>
       <c r="H17"/>
-    </row>
-    <row r="18" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I17"/>
+    </row>
+    <row r="18" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18"/>
+      <c r="E18" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G18"/>
       <c r="H18"/>
-    </row>
-    <row r="19" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I18"/>
+    </row>
+    <row r="19" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19"/>
+      <c r="E19" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G19"/>
       <c r="H19"/>
-    </row>
-    <row r="20" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I19"/>
+    </row>
+    <row r="20" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20"/>
+      <c r="E20" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G20"/>
       <c r="H20"/>
-    </row>
-    <row r="21" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I20"/>
+    </row>
+    <row r="21" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21"/>
+      <c r="E21" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G21"/>
       <c r="H21"/>
-    </row>
-    <row r="22" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I21"/>
+    </row>
+    <row r="22" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22"/>
+      <c r="E22" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G22"/>
       <c r="H22"/>
-    </row>
-    <row r="23" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I22"/>
+    </row>
+    <row r="23" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23"/>
+      <c r="E23" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G23"/>
       <c r="H23"/>
-    </row>
-    <row r="24" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I23"/>
+    </row>
+    <row r="24" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24"/>
+      <c r="E24" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G24"/>
       <c r="H24"/>
-    </row>
-    <row r="25" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I24"/>
+    </row>
+    <row r="25" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F25"/>
+      <c r="E25" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G25"/>
       <c r="H25"/>
-    </row>
-    <row r="26" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I25"/>
+    </row>
+    <row r="26" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26"/>
+      <c r="E26" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G26"/>
       <c r="H26"/>
-    </row>
-    <row r="27" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I26"/>
+    </row>
+    <row r="27" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27"/>
+      <c r="E27" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G27"/>
       <c r="H27"/>
-    </row>
-    <row r="28" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I27"/>
+    </row>
+    <row r="28" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F28"/>
+      <c r="E28" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G28"/>
       <c r="H28"/>
-    </row>
-    <row r="29" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I28"/>
+    </row>
+    <row r="29" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F29"/>
+      <c r="E29" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G29"/>
       <c r="H29"/>
-    </row>
-    <row r="30" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I29"/>
+    </row>
+    <row r="30" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F30"/>
+      <c r="E30" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G30"/>
       <c r="H30"/>
-    </row>
-    <row r="31" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I30"/>
+    </row>
+    <row r="31" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F31"/>
+      <c r="E31" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G31"/>
       <c r="H31"/>
-    </row>
-    <row r="32" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I31"/>
+    </row>
+    <row r="32" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F32"/>
+      <c r="E32" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G32"/>
       <c r="H32"/>
-    </row>
-    <row r="33" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I32"/>
+    </row>
+    <row r="33" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F33"/>
+      <c r="E33" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G33"/>
       <c r="H33"/>
-    </row>
-    <row r="34" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I33"/>
+    </row>
+    <row r="34" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F34"/>
+      <c r="E34" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G34"/>
       <c r="H34"/>
-    </row>
-    <row r="35" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I34"/>
+    </row>
+    <row r="35" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>34</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F35"/>
+      <c r="E35" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G35"/>
       <c r="H35"/>
-    </row>
-    <row r="36" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I35"/>
+    </row>
+    <row r="36" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F36"/>
+      <c r="E36" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G36"/>
       <c r="H36"/>
-    </row>
-    <row r="37" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I36"/>
+    </row>
+    <row r="37" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F37"/>
+      <c r="E37" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G37"/>
       <c r="H37"/>
-    </row>
-    <row r="38" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I37"/>
+    </row>
+    <row r="38" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>37</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E38" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F38"/>
+      <c r="E38" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G38"/>
       <c r="H38"/>
-    </row>
-    <row r="39" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I38"/>
+    </row>
+    <row r="39" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>38</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D39" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E39" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F39"/>
+      <c r="E39" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G39"/>
       <c r="H39"/>
-    </row>
-    <row r="40" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I39"/>
+    </row>
+    <row r="40" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>39</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E40" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F40"/>
+      <c r="E40" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G40"/>
       <c r="H40"/>
-    </row>
-    <row r="41" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I40"/>
+    </row>
+    <row r="41" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>40</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D41" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E41" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F41"/>
+      <c r="E41" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G41"/>
       <c r="H41"/>
-    </row>
-    <row r="42" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I41"/>
+    </row>
+    <row r="42" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>41</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D42" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E42" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F42"/>
+      <c r="E42" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G42"/>
       <c r="H42"/>
-    </row>
-    <row r="43" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I42"/>
+    </row>
+    <row r="43" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>42</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D43" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E43" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F43"/>
+      <c r="E43" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G43"/>
       <c r="H43"/>
-    </row>
-    <row r="44" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I43"/>
+    </row>
+    <row r="44" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>43</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D44" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F44"/>
+      <c r="E44" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G44"/>
       <c r="H44"/>
-    </row>
-    <row r="45" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I44"/>
+    </row>
+    <row r="45" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>44</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D45" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E45" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F45"/>
+      <c r="E45" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G45"/>
       <c r="H45"/>
-    </row>
-    <row r="46" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I45"/>
+    </row>
+    <row r="46" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
         <v>45</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D46" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E46" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F46"/>
+      <c r="E46" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G46"/>
       <c r="H46"/>
-    </row>
-    <row r="47" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I46"/>
+    </row>
+    <row r="47" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>46</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D47" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E47" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F47"/>
+      <c r="E47" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G47"/>
       <c r="H47"/>
-    </row>
-    <row r="48" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I47"/>
+    </row>
+    <row r="48" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
         <v>47</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D48" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E48" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F48"/>
+      <c r="E48" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G48"/>
       <c r="H48"/>
-    </row>
-    <row r="49" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I48"/>
+    </row>
+    <row r="49" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>48</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D49" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E49" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F49"/>
+      <c r="E49" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G49"/>
       <c r="H49"/>
-    </row>
-    <row r="50" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I49"/>
+    </row>
+    <row r="50" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
         <v>49</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D50" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E50" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F50"/>
+      <c r="E50" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="G50"/>
       <c r="H50"/>
-    </row>
-    <row r="51" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I50"/>
+    </row>
+    <row r="51" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>50</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D51" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E51" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F51"/>
+      <c r="E51" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G51"/>
       <c r="H51"/>
-    </row>
-    <row r="52" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I51"/>
+    </row>
+    <row r="52" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="2">
         <v>51</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D52" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E52" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F52"/>
+      <c r="E52" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F52" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G52"/>
       <c r="H52"/>
-    </row>
-    <row r="53" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I52"/>
+    </row>
+    <row r="53" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="2">
         <v>52</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D53" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E53" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F53"/>
+      <c r="E53" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F53" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G53"/>
       <c r="H53"/>
-    </row>
-    <row r="54" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I53"/>
+    </row>
+    <row r="54" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="2">
         <v>53</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D54" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E54" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F54"/>
+      <c r="E54" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F54" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G54"/>
       <c r="H54"/>
-    </row>
-    <row r="55" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I54"/>
+    </row>
+    <row r="55" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="2">
         <v>54</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D55" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E55" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F55"/>
+      <c r="E55" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F55" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G55"/>
       <c r="H55"/>
-    </row>
-    <row r="56" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I55"/>
+    </row>
+    <row r="56" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="2">
         <v>55</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D56" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E56" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F56"/>
+      <c r="E56" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F56" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G56"/>
       <c r="H56"/>
-    </row>
-    <row r="57" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I56"/>
+    </row>
+    <row r="57" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="2">
         <v>56</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D57" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E57" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F57"/>
+      <c r="E57" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F57" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G57"/>
       <c r="H57"/>
-    </row>
-    <row r="58" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I57"/>
+    </row>
+    <row r="58" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="2">
         <v>57</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D58" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E58" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F58"/>
+      <c r="E58" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F58" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G58"/>
       <c r="H58"/>
-    </row>
-    <row r="59" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I58"/>
+    </row>
+    <row r="59" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="2">
         <v>58</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D59" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E59" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F59"/>
+      <c r="E59" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F59" s="14" t="s">
+        <v>31</v>
+      </c>
       <c r="G59"/>
       <c r="H59"/>
-    </row>
-    <row r="60" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I59"/>
+    </row>
+    <row r="60" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="2">
         <v>59</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D60" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E60" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F60"/>
+      <c r="E60" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F60" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="G60"/>
       <c r="H60"/>
-    </row>
-    <row r="61" spans="1:8" ht="243" x14ac:dyDescent="0.15">
+      <c r="I60"/>
+    </row>
+    <row r="61" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="2">
         <v>60</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D61" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E61" s="14" t="s">
-        <v>31</v>
+      <c r="E61" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F61" s="14" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E2"/>
+  <autoFilter ref="A1:F2"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2277,29 +3148,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C67" sqref="C67"/>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.75" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="6.75" style="2" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.625" style="2" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="6.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="51.625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14" style="3" customWidth="1"/>
-    <col min="6" max="8" width="34.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="31.75" style="1"/>
-    <col min="10" max="10" width="21.625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="31.75" style="1"/>
-    <col min="12" max="12" width="23.25" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="31.75" style="1"/>
+    <col min="4" max="4" width="27.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.75" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14" style="3" customWidth="1"/>
+    <col min="7" max="9" width="34.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="31.75" style="1"/>
+    <col min="11" max="11" width="21.625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="31.75" style="1"/>
+    <col min="13" max="13" width="23.25" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="31.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="20" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" s="20" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -2309,1252 +3181,1229 @@
       <c r="C1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="17" t="s">
+      <c r="D1" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>28</v>
-      </c>
       <c r="J1" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="L1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="M1" s="19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>20</v>
+      </c>
       <c r="G2"/>
       <c r="H2"/>
-      <c r="I2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="9"/>
-    </row>
-    <row r="3" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I2"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="9"/>
+    </row>
+    <row r="3" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B3" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="14"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="9"/>
+    </row>
+    <row r="4" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="14"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" s="9"/>
-    </row>
-    <row r="4" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4"/>
       <c r="G4"/>
       <c r="H4"/>
-    </row>
-    <row r="5" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I4"/>
+    </row>
+    <row r="5" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B5" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5"/>
       <c r="G5"/>
       <c r="H5"/>
-    </row>
-    <row r="6" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I5"/>
+    </row>
+    <row r="6" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B6" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6"/>
       <c r="G6"/>
       <c r="H6"/>
-    </row>
-    <row r="7" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I6"/>
+    </row>
+    <row r="7" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7"/>
+        <v>18</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>25</v>
+      </c>
       <c r="G7"/>
       <c r="H7"/>
-    </row>
-    <row r="8" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I7"/>
+    </row>
+    <row r="8" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8"/>
+        <v>18</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G8"/>
       <c r="H8"/>
-    </row>
-    <row r="9" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I8"/>
+    </row>
+    <row r="9" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9"/>
+      <c r="E9" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G9"/>
       <c r="H9"/>
-    </row>
-    <row r="10" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I9"/>
+    </row>
+    <row r="10" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10"/>
+      <c r="E10" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G10"/>
       <c r="H10"/>
-    </row>
-    <row r="11" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I10"/>
+    </row>
+    <row r="11" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11"/>
+      <c r="E11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G11"/>
       <c r="H11"/>
-    </row>
-    <row r="12" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I11"/>
+    </row>
+    <row r="12" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12"/>
+      <c r="E12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G12"/>
       <c r="H12"/>
-    </row>
-    <row r="13" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I12"/>
+    </row>
+    <row r="13" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13"/>
+      <c r="E13" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G13"/>
       <c r="H13"/>
-    </row>
-    <row r="14" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I13"/>
+    </row>
+    <row r="14" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14"/>
+      <c r="E14" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G14"/>
       <c r="H14"/>
-    </row>
-    <row r="15" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I14"/>
+    </row>
+    <row r="15" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15"/>
+      <c r="E15" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G15"/>
       <c r="H15"/>
-    </row>
-    <row r="16" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I15"/>
+    </row>
+    <row r="16" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16"/>
+      <c r="E16" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G16"/>
       <c r="H16"/>
-    </row>
-    <row r="17" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I16"/>
+    </row>
+    <row r="17" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17"/>
+      <c r="E17" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G17"/>
       <c r="H17"/>
-    </row>
-    <row r="18" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I17"/>
+    </row>
+    <row r="18" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18"/>
+      <c r="E18" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G18"/>
       <c r="H18"/>
-    </row>
-    <row r="19" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I18"/>
+    </row>
+    <row r="19" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19"/>
+      <c r="E19" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G19"/>
       <c r="H19"/>
-    </row>
-    <row r="20" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I19"/>
+    </row>
+    <row r="20" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20"/>
+      <c r="E20" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G20"/>
       <c r="H20"/>
-    </row>
-    <row r="21" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I20"/>
+    </row>
+    <row r="21" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21"/>
+      <c r="E21" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G21"/>
       <c r="H21"/>
-    </row>
-    <row r="22" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I21"/>
+    </row>
+    <row r="22" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22"/>
+      <c r="E22" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G22"/>
       <c r="H22"/>
-    </row>
-    <row r="23" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I22"/>
+    </row>
+    <row r="23" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23"/>
+      <c r="E23" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G23"/>
       <c r="H23"/>
-    </row>
-    <row r="24" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I23"/>
+    </row>
+    <row r="24" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24"/>
+      <c r="E24" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G24"/>
       <c r="H24"/>
-    </row>
-    <row r="25" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I24"/>
+    </row>
+    <row r="25" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F25"/>
+      <c r="E25" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G25"/>
       <c r="H25"/>
-    </row>
-    <row r="26" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I25"/>
+    </row>
+    <row r="26" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26"/>
+      <c r="E26" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G26"/>
       <c r="H26"/>
-    </row>
-    <row r="27" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I26"/>
+    </row>
+    <row r="27" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27"/>
+      <c r="E27" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G27"/>
       <c r="H27"/>
-    </row>
-    <row r="28" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I27"/>
+    </row>
+    <row r="28" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F28"/>
+      <c r="E28" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G28"/>
       <c r="H28"/>
-    </row>
-    <row r="29" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I28"/>
+    </row>
+    <row r="29" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F29"/>
+      <c r="E29" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G29"/>
       <c r="H29"/>
-    </row>
-    <row r="30" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I29"/>
+    </row>
+    <row r="30" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F30"/>
+      <c r="E30" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G30"/>
       <c r="H30"/>
-    </row>
-    <row r="31" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I30"/>
+    </row>
+    <row r="31" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F31"/>
+      <c r="E31" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G31"/>
       <c r="H31"/>
-    </row>
-    <row r="32" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I31"/>
+    </row>
+    <row r="32" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F32"/>
+      <c r="E32" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G32"/>
       <c r="H32"/>
-    </row>
-    <row r="33" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I32"/>
+    </row>
+    <row r="33" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F33"/>
+      <c r="E33" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G33"/>
       <c r="H33"/>
-    </row>
-    <row r="34" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I33"/>
+    </row>
+    <row r="34" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F34"/>
+      <c r="E34" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G34"/>
       <c r="H34"/>
-    </row>
-    <row r="35" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I34"/>
+    </row>
+    <row r="35" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F35"/>
+      <c r="E35" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G35"/>
       <c r="H35"/>
-    </row>
-    <row r="36" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I35"/>
+    </row>
+    <row r="36" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F36"/>
+      <c r="E36" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G36"/>
       <c r="H36"/>
-    </row>
-    <row r="37" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I36"/>
+    </row>
+    <row r="37" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F37"/>
+      <c r="E37" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G37"/>
       <c r="H37"/>
-    </row>
-    <row r="38" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I37"/>
+    </row>
+    <row r="38" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E38" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F38"/>
+      <c r="E38" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G38"/>
       <c r="H38"/>
-    </row>
-    <row r="39" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I38"/>
+    </row>
+    <row r="39" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D39" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E39" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F39"/>
+      <c r="E39" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G39"/>
       <c r="H39"/>
-    </row>
-    <row r="40" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I39"/>
+    </row>
+    <row r="40" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E40" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F40"/>
+      <c r="E40" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G40"/>
       <c r="H40"/>
-    </row>
-    <row r="41" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I40"/>
+    </row>
+    <row r="41" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D41" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E41" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F41"/>
+      <c r="E41" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G41"/>
       <c r="H41"/>
-    </row>
-    <row r="42" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I41"/>
+    </row>
+    <row r="42" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D42" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E42" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F42"/>
+      <c r="E42" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G42"/>
       <c r="H42"/>
-    </row>
-    <row r="43" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I42"/>
+    </row>
+    <row r="43" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D43" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E43" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F43"/>
+      <c r="E43" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G43"/>
       <c r="H43"/>
-    </row>
-    <row r="44" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I43"/>
+    </row>
+    <row r="44" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D44" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F44"/>
+      <c r="E44" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G44"/>
       <c r="H44"/>
-    </row>
-    <row r="45" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I44"/>
+    </row>
+    <row r="45" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D45" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E45" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F45"/>
+      <c r="E45" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G45"/>
       <c r="H45"/>
-    </row>
-    <row r="46" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I45"/>
+    </row>
+    <row r="46" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D46" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E46" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F46"/>
+      <c r="E46" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G46"/>
       <c r="H46"/>
-    </row>
-    <row r="47" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I46"/>
+    </row>
+    <row r="47" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D47" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E47" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F47"/>
+      <c r="E47" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G47"/>
       <c r="H47"/>
-    </row>
-    <row r="48" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I47"/>
+    </row>
+    <row r="48" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D48" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E48" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F48"/>
+      <c r="E48" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G48"/>
       <c r="H48"/>
-    </row>
-    <row r="49" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I48"/>
+    </row>
+    <row r="49" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D49" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E49" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F49"/>
+      <c r="E49" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G49"/>
       <c r="H49"/>
-    </row>
-    <row r="50" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I49"/>
+    </row>
+    <row r="50" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D50" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E50" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F50"/>
+      <c r="E50" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="G50"/>
       <c r="H50"/>
-    </row>
-    <row r="51" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I50"/>
+    </row>
+    <row r="51" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D51" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E51" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F51"/>
+      <c r="E51" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G51"/>
       <c r="H51"/>
-    </row>
-    <row r="52" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I51"/>
+    </row>
+    <row r="52" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D52" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E52" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F52"/>
+      <c r="E52" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F52" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G52"/>
       <c r="H52"/>
-    </row>
-    <row r="53" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I52"/>
+    </row>
+    <row r="53" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D53" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E53" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F53"/>
+      <c r="E53" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F53" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G53"/>
       <c r="H53"/>
-    </row>
-    <row r="54" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I53"/>
+    </row>
+    <row r="54" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D54" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E54" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F54"/>
+      <c r="E54" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F54" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G54"/>
       <c r="H54"/>
-    </row>
-    <row r="55" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I54"/>
+    </row>
+    <row r="55" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D55" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E55" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F55"/>
+      <c r="E55" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F55" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G55"/>
       <c r="H55"/>
-    </row>
-    <row r="56" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I55"/>
+    </row>
+    <row r="56" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D56" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E56" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F56"/>
+      <c r="E56" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F56" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G56"/>
       <c r="H56"/>
-    </row>
-    <row r="57" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I56"/>
+    </row>
+    <row r="57" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D57" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E57" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F57"/>
+      <c r="E57" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F57" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G57"/>
       <c r="H57"/>
-    </row>
-    <row r="58" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I57"/>
+    </row>
+    <row r="58" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D58" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E58" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F58"/>
+      <c r="E58" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F58" s="14" t="s">
+        <v>31</v>
+      </c>
       <c r="G58"/>
       <c r="H58"/>
-    </row>
-    <row r="59" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I58"/>
+    </row>
+    <row r="59" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D59" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E59" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F59"/>
+      <c r="E59" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F59" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="G59"/>
       <c r="H59"/>
-    </row>
-    <row r="60" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I59"/>
+    </row>
+    <row r="60" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D60" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E60" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F60"/>
+      <c r="E60" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F60" s="14" t="s">
+        <v>186</v>
+      </c>
       <c r="G60"/>
       <c r="H60"/>
-    </row>
-    <row r="61" spans="1:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="2">
-        <v>60</v>
-      </c>
-      <c r="B61" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D61" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E61" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F61"/>
-      <c r="G61"/>
-      <c r="H61"/>
+      <c r="I60"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E2"/>
+  <autoFilter ref="A1:F2"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3563,29 +4412,30 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.75" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="6.75" style="2" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.625" style="2" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="6.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="51.625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14" style="3" customWidth="1"/>
-    <col min="6" max="8" width="34.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="31.75" style="1"/>
-    <col min="10" max="10" width="21.625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="31.75" style="1"/>
-    <col min="12" max="12" width="23.25" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="31.75" style="1"/>
+    <col min="4" max="4" width="27.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.75" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14" style="3" customWidth="1"/>
+    <col min="7" max="9" width="34.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="31.75" style="1"/>
+    <col min="11" max="11" width="21.625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="31.75" style="1"/>
+    <col min="13" max="13" width="23.25" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="31.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="20" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" s="20" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -3595,64 +4445,96 @@
       <c r="C1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="17" t="s">
+      <c r="D1" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>28</v>
-      </c>
       <c r="J1" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="L1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="M1" s="19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="F2"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>98</v>
+      </c>
       <c r="G2"/>
       <c r="H2"/>
-      <c r="I2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="9"/>
-    </row>
+      <c r="I2"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="9"/>
+    </row>
+    <row r="3" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <autoFilter ref="A1:E2"/>
+  <autoFilter ref="A1:F2"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/main/resources/apibatch.xlsx
+++ b/src/main/resources/apibatch.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21450" windowHeight="6225" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21450" windowHeight="6225" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="api_info" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">getRegion!$A$1:$F$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">getRegionForReceiving!$A$1:$F$2</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="117">
   <si>
     <t>CaseId(用例编号)</t>
   </si>
@@ -82,10 +82,6 @@
     <t>LabelPrintService</t>
   </si>
   <si>
-    <t>http://test.tms.com/V4/api/LabelPrintService/PrintLabel?type=json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -106,6 +102,307 @@
   </si>
   <si>
     <t>Base64img(Base64图片)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RequestData(接口请求参数)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postXml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postJson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LabelPrintService</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://test-oms.eminxing.com:50080/default/svc/web-service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UseCaseTitle(用例标题)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UseCaseTitle(用例标题)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UseCaseTitle(用例标题)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>接口名称</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>获取国家列表</t>
+  </si>
+  <si>
+    <t>getCountry</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取中国区域列表</t>
+  </si>
+  <si>
+    <t>getRegion</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取支持揽收的区域</t>
+  </si>
+  <si>
+    <t>getRegionForReceiving</t>
+  </si>
+  <si>
+    <t>获取海外仓仓库代码</t>
+  </si>
+  <si>
+    <t>getWarehouse</t>
+  </si>
+  <si>
+    <t>获取中转仓仓库代码</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>getTransferWarehouse</t>
+  </si>
+  <si>
+    <t>获取订单运输方式</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>getShippingMethod</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取中转仓入库单派送方式</t>
+  </si>
+  <si>
+    <t>getSmcode</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取进出口商</t>
+  </si>
+  <si>
+    <t>getVatList</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取系统品类</t>
+  </si>
+  <si>
+    <t>getCategory</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取公司账户</t>
+  </si>
+  <si>
+    <t>getAccount</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取库存</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>getProductInventory</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建商品</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>addProduct</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改商品</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">editProduct </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取商品列表</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>getProductSkuList</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增商品进口国数据</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>addImportCountry</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印SKU</t>
+  </si>
+  <si>
+    <t>printSku</t>
+  </si>
+  <si>
+    <t>新建订单</t>
+  </si>
+  <si>
+    <t>createOrder</t>
+  </si>
+  <si>
+    <t>修改订单</t>
+  </si>
+  <si>
+    <t>modifyOrder</t>
+  </si>
+  <si>
+    <t>取消订单</t>
+  </si>
+  <si>
+    <t>cancelOrder</t>
+  </si>
+  <si>
+    <t>根据参考号获取单票订单信息</t>
+  </si>
+  <si>
+    <t>getOrderByRefCode</t>
+  </si>
+  <si>
+    <t>根据订单号获取单票订单信息</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>getOrderByCode</t>
+  </si>
+  <si>
+    <t>获取订单列表</t>
+  </si>
+  <si>
+    <t>getOrderList</t>
+  </si>
+  <si>
+    <t>运费试算</t>
+  </si>
+  <si>
+    <t>getCalculateFee</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址校验</t>
+  </si>
+  <si>
+    <t>verifyAddressInfo</t>
+  </si>
+  <si>
+    <t>售后单查询</t>
+  </si>
+  <si>
+    <t>searchReturnOrder</t>
+  </si>
+  <si>
+    <t>售后单列表</t>
+  </si>
+  <si>
+    <t>getAfterReturnOrders</t>
+  </si>
+  <si>
+    <t>废弃售后单</t>
+  </si>
+  <si>
+    <t>returnAfterOrderDiscard</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建售后单</t>
+  </si>
+  <si>
+    <t>createAfterReturnOrder</t>
+  </si>
+  <si>
+    <t>修改售后单</t>
+  </si>
+  <si>
+    <t>updateAfterReturnOrde</t>
+  </si>
+  <si>
+    <t>新建入库单</t>
+  </si>
+  <si>
+    <t>createGRN</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑入库单</t>
+  </si>
+  <si>
+    <t>modifyGRN</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>废弃入库单</t>
+  </si>
+  <si>
+    <t>delGRN</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取入库单列表</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>getGRNList</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取入库单明细</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>getGRNDetail</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除入库单箱唛</t>
+  </si>
+  <si>
+    <t>delAsnBox</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印箱唛</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">printGcReceivingBox </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;paramsJson&gt;{"product_sku":"API_sku_AutoTest001","reference_no":"","product_title":"意大利怀表","product_weight":"0.35","product_length":"29.70","product_width":"21.00","product_height":"4","contain_battery":"0","product_declared_value":"10.5","product_declared_name":"MenTshirt","cat_lang":"en","cat_id_level0":"400001","cat_id_level1":"500013","cat_id_level2":"600788","verify":"0","hs_code":"code123","warning_qty":"10"}&lt;/paramsJson&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -124,340 +421,93 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>appToken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e3b35ad93c4d3d831728ff1217d02b90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b39989ad17963d61d1c18267d3fc1605</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>RequestData(接口请求参数)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Success</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>postXml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>postJson</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LabelPrintService</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://test-oms.eminxing.com:50080/default/svc/web-service</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UseCaseTitle(用例标题)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UseCaseTitle(用例标题)</t>
+    <t>{
+ "Version":"0.0.0.3",
+    "Data": {
+        "OrderID": "TestFedex6069QW",
+"ParcelInformation": {
+      "Weight": "70", 
+      "WeightUnit": 1, 
+      "Length": "30", 
+      "Width": "20", 
+      "Height": "10", 
+      "SizeUnit": 1, 
+      "ExistDangeroursGoods": false, 
+      "ProductInformations": [
+        {
+          "Description": "phonecase", 
+          "Quantity": 1, 
+          "Weight": "1.000", 
+          "WeightUnit": 4, 
+          "Value": "0.0", 
+          "Sku": "", 
+          "Remark": "", 
+          "ProductUrl": "", 
+          "HSCode": "testcode"
+        }
+      ]
+    }, 
+    "RecipientAddress": {
+      "FirstName": "Shelley", 
+      "LastName": "Bond ", 
+      "Company": null, 
+      "StreetAddress": "3817 Harrison Street", 
+      "StreetAddress2": "Address2", 
+      "StreetAddress3": null, 
+     "City": "San Francisco",
+            "State": "CA",
+            "ZIPCode": "94122",
+            "Country": "US",
+      "PhoneNumber": "+1.4155669802", 
+      "IsResidential": true
+    }, 
+    "ChannelName": "FEDEX", 
+    "Token": "99999999999999999999999999999999", 
+    "ServiceTypeCode": "FEDEX_GROUND", 
+    "WarehouseCode": "CA", 
+    "LabelMarkText": null, 
+    "RedundancyField": {
+      "SignatureOption": ""
+    }
+  }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.109.224:8000/V4/Api/LabelPrintService/PrintLabel?type=json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牙套妹奈何美色</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>UseCaseTitle(用例标题)</t>
+    <t>hello妹</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
-  </si>
-  <si>
-    <t>接口名称</t>
-  </si>
-  <si>
-    <t>service</t>
-  </si>
-  <si>
-    <t>获取国家列表</t>
-  </si>
-  <si>
-    <t>getCountry</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取中国区域列表</t>
-  </si>
-  <si>
-    <t>getRegion</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取支持揽收的区域</t>
-  </si>
-  <si>
-    <t>getRegionForReceiving</t>
-  </si>
-  <si>
-    <t>获取海外仓仓库代码</t>
-  </si>
-  <si>
-    <t>getWarehouse</t>
-  </si>
-  <si>
-    <t>获取中转仓仓库代码</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>getTransferWarehouse</t>
-  </si>
-  <si>
-    <t>获取订单运输方式</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>getShippingMethod</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取中转仓入库单派送方式</t>
-  </si>
-  <si>
-    <t>getSmcode</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取进出口商</t>
-  </si>
-  <si>
-    <t>getVatList</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取系统品类</t>
-  </si>
-  <si>
-    <t>getCategory</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取公司账户</t>
-  </si>
-  <si>
-    <t>getAccount</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取库存</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>getProductInventory</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建商品</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>addProduct</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改商品</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">editProduct </t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取商品列表</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>getProductSkuList</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增商品进口国数据</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>addImportCountry</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>打印SKU</t>
-  </si>
-  <si>
-    <t>printSku</t>
-  </si>
-  <si>
-    <t>新建订单</t>
-  </si>
-  <si>
-    <t>createOrder</t>
-  </si>
-  <si>
-    <t>修改订单</t>
-  </si>
-  <si>
-    <t>modifyOrder</t>
-  </si>
-  <si>
-    <t>取消订单</t>
-  </si>
-  <si>
-    <t>cancelOrder</t>
-  </si>
-  <si>
-    <t>根据参考号获取单票订单信息</t>
-  </si>
-  <si>
-    <t>getOrderByRefCode</t>
-  </si>
-  <si>
-    <t>根据订单号获取单票订单信息</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>getOrderByCode</t>
-  </si>
-  <si>
-    <t>获取订单列表</t>
-  </si>
-  <si>
-    <t>getOrderList</t>
-  </si>
-  <si>
-    <t>运费试算</t>
-  </si>
-  <si>
-    <t>getCalculateFee</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址校验</t>
-  </si>
-  <si>
-    <t>verifyAddressInfo</t>
-  </si>
-  <si>
-    <t>售后单查询</t>
-  </si>
-  <si>
-    <t>searchReturnOrder</t>
-  </si>
-  <si>
-    <t>售后单列表</t>
-  </si>
-  <si>
-    <t>getAfterReturnOrders</t>
-  </si>
-  <si>
-    <t>废弃售后单</t>
-  </si>
-  <si>
-    <t>returnAfterOrderDiscard</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建售后单</t>
-  </si>
-  <si>
-    <t>createAfterReturnOrder</t>
-  </si>
-  <si>
-    <t>修改售后单</t>
-  </si>
-  <si>
-    <t>updateAfterReturnOrde</t>
-  </si>
-  <si>
-    <t>新建入库单</t>
-  </si>
-  <si>
-    <t>createGRN</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑入库单</t>
-  </si>
-  <si>
-    <t>modifyGRN</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>废弃入库单</t>
-  </si>
-  <si>
-    <t>delGRN</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取入库单列表</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>getGRNList</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取入库单明细</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>getGRNDetail</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除入库单箱唛</t>
-  </si>
-  <si>
-    <t>delAsnBox</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>打印箱唛</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">printGcReceivingBox </t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;paramsJson&gt;{"product_sku":"API_sku_AutoTest001","reference_no":"","product_title":"意大利怀表","product_weight":"0.35","product_length":"29.70","product_width":"21.00","product_height":"4","contain_battery":"0","product_declared_value":"10.5","product_declared_name":"MenTshirt","cat_lang":"en","cat_id_level0":"400001","cat_id_level1":"500013","cat_id_level2":"600788","verify":"0","hs_code":"code123","warning_qty":"10"}&lt;/paramsJson&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "Data": {
-    "BatchNumber": "T5093-EKD1808071096",
-    "ProductCode": "F-E(2DAY)ddd",
-    "WarehouseCode": "CA",
-    "ReferenceNumber": "",
-    "LabelType": 1
-  },
-  "Version": "0.0.0.3",
-  "RequestTime": "2017-09-21T08:00:38.0852597Z",
-  "RequestId": null
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>appToken</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>appKey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e3b35ad93c4d3d831728ff1217d02b90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b39989ad17963d61d1c18267d3fc1605</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置区域</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1019,7 +1069,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1058,13 +1108,13 @@
         <v>13</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F2" s="31"/>
       <c r="G2" s="31"/>
@@ -1076,47 +1126,47 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E3" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="F3" s="22" t="s">
-        <v>111</v>
-      </c>
       <c r="G3" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="24" t="s">
         <v>32</v>
-      </c>
-      <c r="H3" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="24" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="22" t="s">
         <v>110</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>112</v>
       </c>
       <c r="G4" s="25">
         <v>1</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I4" s="26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
@@ -1126,10 +1176,10 @@
         <v>2</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I5" s="26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
@@ -1140,10 +1190,10 @@
         <v>3</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I6" s="27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
@@ -1153,10 +1203,10 @@
         <v>4</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I7" s="26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
@@ -1166,10 +1216,10 @@
         <v>5</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I8" s="26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
@@ -1179,10 +1229,10 @@
         <v>6</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I9" s="26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
@@ -1192,10 +1242,10 @@
         <v>7</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I10" s="26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
@@ -1205,10 +1255,10 @@
         <v>8</v>
       </c>
       <c r="H11" s="29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I11" s="26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
@@ -1218,10 +1268,10 @@
         <v>9</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I12" s="26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
@@ -1231,10 +1281,10 @@
         <v>10</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I13" s="26" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
@@ -1244,10 +1294,10 @@
         <v>11</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I14" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
@@ -1255,10 +1305,10 @@
         <v>12</v>
       </c>
       <c r="H15" s="29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I15" s="26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
@@ -1266,10 +1316,10 @@
         <v>13</v>
       </c>
       <c r="H16" s="29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I16" s="26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="7:9" x14ac:dyDescent="0.15">
@@ -1277,10 +1327,10 @@
         <v>14</v>
       </c>
       <c r="H17" s="29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I17" s="26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="7:9" x14ac:dyDescent="0.15">
@@ -1288,10 +1338,10 @@
         <v>15</v>
       </c>
       <c r="H18" s="29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I18" s="30" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="7:9" x14ac:dyDescent="0.15">
@@ -1299,10 +1349,10 @@
         <v>16</v>
       </c>
       <c r="H19" s="29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I19" s="30" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="7:9" x14ac:dyDescent="0.15">
@@ -1310,10 +1360,10 @@
         <v>17</v>
       </c>
       <c r="H20" s="29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I20" s="26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="7:9" x14ac:dyDescent="0.15">
@@ -1321,10 +1371,10 @@
         <v>18</v>
       </c>
       <c r="H21" s="29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I21" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="7:9" x14ac:dyDescent="0.15">
@@ -1332,10 +1382,10 @@
         <v>19</v>
       </c>
       <c r="H22" s="29" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I22" s="26" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="7:9" x14ac:dyDescent="0.15">
@@ -1343,10 +1393,10 @@
         <v>20</v>
       </c>
       <c r="H23" s="29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I23" s="26" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="7:9" x14ac:dyDescent="0.15">
@@ -1354,10 +1404,10 @@
         <v>21</v>
       </c>
       <c r="H24" s="29" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I24" s="26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="7:9" x14ac:dyDescent="0.15">
@@ -1365,10 +1415,10 @@
         <v>22</v>
       </c>
       <c r="H25" s="29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I25" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="7:9" x14ac:dyDescent="0.15">
@@ -1376,10 +1426,10 @@
         <v>23</v>
       </c>
       <c r="H26" s="29" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I26" s="26" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="7:9" x14ac:dyDescent="0.15">
@@ -1387,10 +1437,10 @@
         <v>24</v>
       </c>
       <c r="H27" s="29" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I27" s="26" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="7:9" x14ac:dyDescent="0.15">
@@ -1398,10 +1448,10 @@
         <v>25</v>
       </c>
       <c r="H28" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I28" s="26" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="7:9" x14ac:dyDescent="0.15">
@@ -1409,10 +1459,10 @@
         <v>26</v>
       </c>
       <c r="H29" s="29" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I29" s="26" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="7:9" x14ac:dyDescent="0.15">
@@ -1420,10 +1470,10 @@
         <v>27</v>
       </c>
       <c r="H30" s="29" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I30" s="26" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="7:9" x14ac:dyDescent="0.15">
@@ -1431,10 +1481,10 @@
         <v>28</v>
       </c>
       <c r="H31" s="29" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I31" s="26" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="7:9" x14ac:dyDescent="0.15">
@@ -1442,10 +1492,10 @@
         <v>29</v>
       </c>
       <c r="H32" s="29" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I32" s="26" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="7:9" x14ac:dyDescent="0.15">
@@ -1453,10 +1503,10 @@
         <v>30</v>
       </c>
       <c r="H33" s="29" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I33" s="26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="7:9" x14ac:dyDescent="0.15">
@@ -1464,10 +1514,10 @@
         <v>31</v>
       </c>
       <c r="H34" s="29" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I34" s="26" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="7:9" x14ac:dyDescent="0.15">
@@ -1475,10 +1525,10 @@
         <v>32</v>
       </c>
       <c r="H35" s="29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I35" s="26" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="7:9" x14ac:dyDescent="0.15">
@@ -1486,10 +1536,10 @@
         <v>33</v>
       </c>
       <c r="H36" s="29" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I36" s="26" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="7:9" x14ac:dyDescent="0.15">
@@ -1497,10 +1547,10 @@
         <v>34</v>
       </c>
       <c r="H37" s="29" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I37" s="26" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="7:9" x14ac:dyDescent="0.15">
@@ -1508,10 +1558,10 @@
         <v>35</v>
       </c>
       <c r="H38" s="29" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I38" s="30" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="7:9" x14ac:dyDescent="0.15">
@@ -1519,10 +1569,10 @@
         <v>36</v>
       </c>
       <c r="H39" s="29" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I39" s="26" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1577,11 +1627,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1611,25 +1661,25 @@
         <v>6</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>9</v>
       </c>
       <c r="G1" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="I1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="18" t="s">
-        <v>20</v>
-      </c>
       <c r="J1" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K1" s="19" t="s">
         <v>10</v>
@@ -1646,17 +1696,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="8"/>
+      <c r="D2" s="16" t="s">
+        <v>115</v>
+      </c>
       <c r="E2" s="13" t="s">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2"/>
       <c r="H2"/>
@@ -1665,6 +1717,33 @@
       <c r="K2" s="9"/>
       <c r="L2" s="10"/>
       <c r="M2" s="9"/>
+    </row>
+    <row r="3" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F2"/>
@@ -1680,7 +1759,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E48" sqref="E48"/>
+      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1710,25 +1789,25 @@
         <v>6</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>9</v>
       </c>
       <c r="G1" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="I1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="18" t="s">
-        <v>20</v>
-      </c>
       <c r="J1" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K1" s="19" t="s">
         <v>10</v>
@@ -1745,17 +1824,17 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2"/>
       <c r="H2"/>
@@ -1777,9 +1856,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD286"/>
+      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1809,25 +1888,25 @@
         <v>6</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>9</v>
       </c>
       <c r="G1" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="I1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="18" t="s">
-        <v>20</v>
-      </c>
       <c r="J1" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K1" s="19" t="s">
         <v>10</v>
@@ -1844,17 +1923,17 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G2"/>
       <c r="H2"/>

--- a/src/main/resources/apibatch.xlsx
+++ b/src/main/resources/apibatch.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Jarvan\Desktop\7\trunk\apiFrame\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Jarvan\Desktop\apiFrame\apiFrame\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21450" windowHeight="6225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21450" windowHeight="6225" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="api_info" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="213">
   <si>
     <t>CaseId(用例编号)</t>
   </si>
@@ -36,113 +36,113 @@
   </si>
   <si>
     <t>ApiId(接口编号)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ApiName(接口名称)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Type(接口提交方式)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Url(接口地址)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>IsExcute(是否执行)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ApiId(接口编号)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ExpectedReponseData(期望响应数据)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>PreCheckResult(前置验证结果)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>AfterCheckSQL(后置验证SQL)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>AfterCheckResult(后置验证结果)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>LabelPrintService</t>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>T5093-EKD1808071096</t>
   </si>
   <si>
     <t>PreCheckSQL(前置验证SQL)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ActualReponseData(实际响应数据)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>AssertResult(断言结果)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Base64img(Base64图片)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>RequestData(接口请求参数)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Success</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>postXml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>postJson</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>LabelPrintService</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>http://test-oms.eminxing.com:50080/default/svc/web-service</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>UseCaseTitle(用例标题)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>UseCaseTitle(用例标题)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>UseCaseTitle(用例标题)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>序号</t>
@@ -158,14 +158,14 @@
   </si>
   <si>
     <t>getCountry</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>获取中国区域列表</t>
   </si>
   <si>
     <t>getRegion</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>获取支持揽收的区域</t>
@@ -181,86 +181,86 @@
   </si>
   <si>
     <t>获取中转仓仓库代码</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>getTransferWarehouse</t>
   </si>
   <si>
     <t>获取订单运输方式</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>getShippingMethod</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>获取中转仓入库单派送方式</t>
   </si>
   <si>
     <t>getSmcode</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>获取进出口商</t>
   </si>
   <si>
     <t>getVatList</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>获取系统品类</t>
   </si>
   <si>
     <t>getCategory</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>获取公司账户</t>
   </si>
   <si>
     <t>getAccount</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>获取库存</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>getProductInventory</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>创建商品</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>addProduct</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>修改商品</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">editProduct </t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>获取商品列表</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>getProductSkuList</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>新增商品进口国数据</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>addImportCountry</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>打印SKU</t>
@@ -294,7 +294,7 @@
   </si>
   <si>
     <t>根据订单号获取单票订单信息</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>getOrderByCode</t>
@@ -310,7 +310,7 @@
   </si>
   <si>
     <t>getCalculateFee</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>地址校验</t>
@@ -335,7 +335,7 @@
   </si>
   <si>
     <t>returnAfterOrderDiscard</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>创建售后单</t>
@@ -354,56 +354,56 @@
   </si>
   <si>
     <t>createGRN</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>编辑入库单</t>
   </si>
   <si>
     <t>modifyGRN</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>废弃入库单</t>
   </si>
   <si>
     <t>delGRN</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>获取入库单列表</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>getGRNList</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>获取入库单明细</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>getGRNDetail</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>删除入库单箱唛</t>
   </si>
   <si>
     <t>delAsnBox</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>打印箱唛</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">printGcReceivingBox </t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>&lt;paramsJson&gt;{"product_sku":"API_sku_AutoTest001","reference_no":"","product_title":"意大利怀表","product_weight":"0.35","product_length":"29.70","product_width":"21.00","product_height":"4","contain_battery":"0","product_declared_value":"10.5","product_declared_name":"MenTshirt","cat_lang":"en","cat_id_level0":"400001","cat_id_level1":"500013","cat_id_level2":"600788","verify":"0","hs_code":"code123","warning_qty":"10"}&lt;/paramsJson&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -418,47 +418,47 @@
   "RequestTime": "2017-09-21T08:00:38.0852597Z",
   "RequestId": null
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>appToken</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>appKey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>e3b35ad93c4d3d831728ff1217d02b90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>b39989ad17963d61d1c18267d3fc1605</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>配置区域</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>RequestData(接口请求参数)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>http://192.168.109.224:8000/V4/Api/LabelPrintService/PrintLabel?type=json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>5</t>
@@ -566,13 +566,18 @@
     <t>39</t>
   </si>
   <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>{
+    <t>LabelImage</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.109.224:8000/V4/Api/LabelPrintService/CancelLabel?type=json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
     "Version":"0.0.0.3",
       "Data": {
-     "OrderID": "TestHKRM9345WX",
+     "OrderID": "TestHKRM115305",
  "ParcelInformation": {
       "Weight": "30", 
       "WeightUnit": 1, 
@@ -591,7 +596,2156 @@
           "Sku": "", 
           "Remark": "", 
           "ProductUrl": "", 
-          "HSCode": "66666"
+          "HSCode": "666666"
+        }
+      ]
+    }, 
+    "RecipientAddress": {
+      "FirstName": "Ecommerce", 
+      "LastName": "Transhipment  Solution Ltd", 
+      "Company": null, 
+      "StreetAddress": "54 Worthy Lane", 
+      "StreetAddress2": "Address2", 
+      "StreetAddress3": null, 
+     "City": "MEANLEY",
+            "State": "Western Australia",
+            "ZIPCode": "BN91 9YL",
+            "Country": "GB",
+      "PhoneNumber": "079 4281 0589", 
+      "IsResidential": true
+    }, 
+    "ChannelName": "HKRM", 
+    "Token": "99999999999999999999999999999999", 
+    "ServiceTypeCode": "Tracked_24_S", 
+    "WarehouseCode": "UK", 
+    "LabelMarkText": null, 
+    "RedundancyField": {
+      "SignatureOption": ""
+    }
+  }
+}
+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TestHKRM115305 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>验证</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮编是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>BN91</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时，面单拣货码显示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>BN91</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "Version":"0.0.0.3",
+      "Data": {
+     "OrderID": "TestHKRM495328",
+ "ParcelInformation": {
+      "Weight": "30", 
+      "WeightUnit": 1, 
+      "Length": "30", 
+      "Width": "20", 
+      "Height": "10", 
+      "SizeUnit": 1, 
+      "ExistDangeroursGoods": false, 
+      "ProductInformations": [
+        {
+          "Description": "phonecase", 
+          "Quantity": 1, 
+          "Weight": "33", 
+          "WeightUnit": 3, 
+          "Value": "10.0", 
+          "Sku": "", 
+          "Remark": "", 
+          "ProductUrl": "", 
+          "HSCode": "666666"
+        }
+      ]
+    }, 
+    "RecipientAddress": {
+      "FirstName": "Ecommerce", 
+      "LastName": "Transhipment  Solution Ltd", 
+      "Company": null, 
+      "StreetAddress": "54 Worthy Lane", 
+      "StreetAddress2": "Address2", 
+      "StreetAddress3": null, 
+     "City": "MEANLEY",
+            "State": "Western Australia",
+            "ZIPCode": "BN95 9YL",
+            "Country": "GB",
+      "PhoneNumber": "079 4281 0589", 
+      "IsResidential": true
+    }, 
+    "ChannelName": "HKRM", 
+    "Token": "99999999999999999999999999999999", 
+    "ServiceTypeCode": "Tracked_24_S", 
+    "WarehouseCode": "UK", 
+    "LabelMarkText": null, 
+    "RedundancyField": {
+      "SignatureOption": ""
+    }
+  }
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TestHKRM495328 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>验证</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮编是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>BN95</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时，面单拣货码显示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>BN92</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "Version":"0.0.0.3",
+      "Data": {
+     "OrderID": "TestHKRM547579",
+ "ParcelInformation": {
+      "Weight": "30", 
+      "WeightUnit": 1, 
+      "Length": "30", 
+      "Width": "20", 
+      "Height": "10", 
+      "SizeUnit": 1, 
+      "ExistDangeroursGoods": false, 
+      "ProductInformations": [
+        {
+          "Description": "phonecase", 
+          "Quantity": 1, 
+          "Weight": "33", 
+          "WeightUnit": 3, 
+          "Value": "10.0", 
+          "Sku": "", 
+          "Remark": "", 
+          "ProductUrl": "", 
+          "HSCode": "666666"
+        }
+      ]
+    }, 
+    "RecipientAddress": {
+      "FirstName": "Ecommerce", 
+      "LastName": "Transhipment  Solution Ltd", 
+      "Company": null, 
+      "StreetAddress": "54 Worthy Lane", 
+      "StreetAddress2": "Address2", 
+      "StreetAddress3": null, 
+     "City": "MEANLEY",
+            "State": "Western Australia",
+            "ZIPCode": "BN99 9YL",
+            "Country": "GB",
+      "PhoneNumber": "079 4281 0589", 
+      "IsResidential": true
+    }, 
+    "ChannelName": "HKRM", 
+    "Token": "99999999999999999999999999999999", 
+    "ServiceTypeCode": "Tracked_24_S", 
+    "WarehouseCode": "UK", 
+    "LabelMarkText": null, 
+    "RedundancyField": {
+      "SignatureOption": ""
+    }
+  }
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TestHKRM495328 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>验证</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮编是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>BN99</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时，面单拣货码显示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Q19</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "Version":"0.0.0.3",
+      "Data": {
+     "OrderID": "TestHKRM882791",
+ "ParcelInformation": {
+      "Weight": "30", 
+      "WeightUnit": 1, 
+      "Length": "30", 
+      "Width": "20", 
+      "Height": "10", 
+      "SizeUnit": 1, 
+      "ExistDangeroursGoods": false, 
+      "ProductInformations": [
+        {
+          "Description": "phonecase", 
+          "Quantity": 1, 
+          "Weight": "33", 
+          "WeightUnit": 3, 
+          "Value": "10.0", 
+          "Sku": "", 
+          "Remark": "", 
+          "ProductUrl": "", 
+          "HSCode": "666666"
+        }
+      ]
+    }, 
+    "RecipientAddress": {
+      "FirstName": "Ecommerce", 
+      "LastName": "Transhipment  Solution Ltd", 
+      "Company": null, 
+      "StreetAddress": "54 Worthy Lane", 
+      "StreetAddress2": "Address2", 
+      "StreetAddress3": null, 
+     "City": "MEANLEY",
+            "State": "Western Australia",
+            "ZIPCode": "DL98 9YL",
+            "Country": "GB",
+      "PhoneNumber": "079 4281 0589", 
+      "IsResidential": true
+    }, 
+    "ChannelName": "HKRM", 
+    "Token": "99999999999999999999999999999999", 
+    "ServiceTypeCode": "Tracked_24_S", 
+    "WarehouseCode": "UK", 
+    "LabelMarkText": null, 
+    "RedundancyField": {
+      "SignatureOption": ""
+    }
+  }
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TestHKRM882791 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>验证</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮编是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>DL98</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时，面单拣货码显示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>E70</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+    "Version":"0.0.0.3",
+      "Data": {
+     "OrderID": "TestHKRM592838",
+ "ParcelInformation": {
+      "Weight": "30", 
+      "WeightUnit": 1, 
+      "Length": "30", 
+      "Width": "20", 
+      "Height": "10", 
+      "SizeUnit": 1, 
+      "ExistDangeroursGoods": false, 
+      "ProductInformations": [
+        {
+          "Description": "phonecase", 
+          "Quantity": 1, 
+          "Weight": "33", 
+          "WeightUnit": 3, 
+          "Value": "10.0", 
+          "Sku": "", 
+          "Remark": "", 
+          "ProductUrl": "", 
+          "HSCode": "666666"
+        }
+      ]
+    }, 
+    "RecipientAddress": {
+      "FirstName": "Ecommerce", 
+      "LastName": "Transhipment  Solution Ltd", 
+      "Company": null, 
+      "StreetAddress": "54 Worthy Lane", 
+      "StreetAddress2": "Address2", 
+      "StreetAddress3": null, 
+     "City": "MEANLEY",
+            "State": "Western Australia",
+            "ZIPCode": "DN1 9YL",
+            "Country": "GB",
+      "PhoneNumber": "079 4281 0589", 
+      "IsResidential": true
+    }, 
+    "ChannelName": "HKRM", 
+    "Token": "99999999999999999999999999999999", 
+    "ServiceTypeCode": "Tracked_24_S", 
+    "WarehouseCode": "UK", 
+    "LabelMarkText": null, 
+    "RedundancyField": {
+      "SignatureOption": ""
+    }
+  }
+}
+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TestHKRM592838 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>验证</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮编是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>DN1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时，面单拣货码显示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>E62</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "Version":"0.0.0.3",
+      "Data": {
+     "OrderID": "TestHKRM237969",
+ "ParcelInformation": {
+      "Weight": "30", 
+      "WeightUnit": 1, 
+      "Length": "30", 
+      "Width": "20", 
+      "Height": "10", 
+      "SizeUnit": 1, 
+      "ExistDangeroursGoods": false, 
+      "ProductInformations": [
+        {
+          "Description": "phonecase", 
+          "Quantity": 1, 
+          "Weight": "33", 
+          "WeightUnit": 3, 
+          "Value": "10.0", 
+          "Sku": "", 
+          "Remark": "", 
+          "ProductUrl": "", 
+          "HSCode": "666666"
+        }
+      ]
+    }, 
+    "RecipientAddress": {
+      "FirstName": "Ecommerce", 
+      "LastName": "Transhipment  Solution Ltd", 
+      "Company": null, 
+      "StreetAddress": "54 Worthy Lane", 
+      "StreetAddress2": "Address2", 
+      "StreetAddress3": null, 
+     "City": "MEANLEY",
+            "State": "Western Australia",
+            "ZIPCode": "DN2 9YL",
+            "Country": "GB",
+      "PhoneNumber": "079 4281 0589", 
+      "IsResidential": true
+    }, 
+    "ChannelName": "HKRM", 
+    "Token": "99999999999999999999999999999999", 
+    "ServiceTypeCode": "Tracked_24_S", 
+    "WarehouseCode": "UK", 
+    "LabelMarkText": null, 
+    "RedundancyField": {
+      "SignatureOption": ""
+    }
+  }
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TestHKRM237969 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>验证</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮编是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>DN2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时，面单拣货码显示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>E62</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TestHKRM237969 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>验证</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮编是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>DN55</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时，面单拣货码显示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>E62</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "Version":"0.0.0.3",
+      "Data": {
+     "OrderID": "TestHKRM969186",
+ "ParcelInformation": {
+      "Weight": "30", 
+      "WeightUnit": 1, 
+      "Length": "30", 
+      "Width": "20", 
+      "Height": "10", 
+      "SizeUnit": 1, 
+      "ExistDangeroursGoods": false, 
+      "ProductInformations": [
+        {
+          "Description": "phonecase", 
+          "Quantity": 1, 
+          "Weight": "33", 
+          "WeightUnit": 3, 
+          "Value": "10.0", 
+          "Sku": "", 
+          "Remark": "", 
+          "ProductUrl": "", 
+          "HSCode": "666666"
+        }
+      ]
+    }, 
+    "RecipientAddress": {
+      "FirstName": "Ecommerce", 
+      "LastName": "Transhipment  Solution Ltd", 
+      "Company": null, 
+      "StreetAddress": "54 Worthy Lane", 
+      "StreetAddress2": "Address2", 
+      "StreetAddress3": null, 
+     "City": "MEANLEY",
+            "State": "Western Australia",
+            "ZIPCode": "DN55 9YL",
+            "Country": "GB",
+      "PhoneNumber": "079 4281 0589", 
+      "IsResidential": true
+    }, 
+    "ChannelName": "HKRM", 
+    "Token": "99999999999999999999999999999999", 
+    "ServiceTypeCode": "Tracked_24_S", 
+    "WarehouseCode": "UK", 
+    "LabelMarkText": null, 
+    "RedundancyField": {
+      "SignatureOption": ""
+    }
+  }
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "Version":"0.0.0.3",
+      "Data": {
+     "OrderID": "TestHKRM713969",
+ "ParcelInformation": {
+      "Weight": "30", 
+      "WeightUnit": 1, 
+      "Length": "30", 
+      "Width": "20", 
+      "Height": "10", 
+      "SizeUnit": 1, 
+      "ExistDangeroursGoods": false, 
+      "ProductInformations": [
+        {
+          "Description": "phonecase", 
+          "Quantity": 1, 
+          "Weight": "33", 
+          "WeightUnit": 3, 
+          "Value": "10.0", 
+          "Sku": "", 
+          "Remark": "", 
+          "ProductUrl": "", 
+          "HSCode": "666666"
+        }
+      ]
+    }, 
+    "RecipientAddress": {
+      "FirstName": "Ecommerce", 
+      "LastName": "Transhipment  Solution Ltd", 
+      "Company": null, 
+      "StreetAddress": "54 Worthy Lane", 
+      "StreetAddress2": "Address2", 
+      "StreetAddress3": null, 
+     "City": "MEANLEY",
+            "State": "Western Australia",
+            "ZIPCode": "DT1 9YL",
+            "Country": "GB",
+      "PhoneNumber": "079 4281 0589", 
+      "IsResidential": true
+    }, 
+    "ChannelName": "HKRM", 
+    "Token": "99999999999999999999999999999999", 
+    "ServiceTypeCode": "Tracked_24_S", 
+    "WarehouseCode": "UK", 
+    "LabelMarkText": null, 
+    "RedundancyField": {
+      "SignatureOption": ""
+    }
+  }
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TestHKRM713969 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>验证</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮编是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>DT1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时，面单拣货码显示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>X14</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "Version":"0.0.0.3",
+      "Data": {
+     "OrderID": "TestHKRM124402",
+ "ParcelInformation": {
+      "Weight": "30", 
+      "WeightUnit": 1, 
+      "Length": "30", 
+      "Width": "20", 
+      "Height": "10", 
+      "SizeUnit": 1, 
+      "ExistDangeroursGoods": false, 
+      "ProductInformations": [
+        {
+          "Description": "phonecase", 
+          "Quantity": 1, 
+          "Weight": "33", 
+          "WeightUnit": 3, 
+          "Value": "10.0", 
+          "Sku": "", 
+          "Remark": "", 
+          "ProductUrl": "", 
+          "HSCode": "666666"
+        }
+      ]
+    }, 
+    "RecipientAddress": {
+      "FirstName": "Ecommerce", 
+      "LastName": "Transhipment  Solution Ltd", 
+      "Company": null, 
+      "StreetAddress": "54 Worthy Lane", 
+      "StreetAddress2": "Address2", 
+      "StreetAddress3": null, 
+     "City": "MEANLEY",
+            "State": "Western Australia",
+            "ZIPCode": "DT2 9YL",
+            "Country": "GB",
+      "PhoneNumber": "079 4281 0589", 
+      "IsResidential": true
+    }, 
+    "ChannelName": "HKRM", 
+    "Token": "99999999999999999999999999999999", 
+    "ServiceTypeCode": "Tracked_24_S", 
+    "WarehouseCode": "UK", 
+    "LabelMarkText": null, 
+    "RedundancyField": {
+      "SignatureOption": ""
+    }
+  }
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TestHKRM124402 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>验证</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮编是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>DT2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时，面单拣货码显示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>X14</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "Version":"0.0.0.3",
+      "Data": {
+     "OrderID": "TestHKRM705669",
+ "ParcelInformation": {
+      "Weight": "30", 
+      "WeightUnit": 1, 
+      "Length": "30", 
+      "Width": "20", 
+      "Height": "10", 
+      "SizeUnit": 1, 
+      "ExistDangeroursGoods": false, 
+      "ProductInformations": [
+        {
+          "Description": "phonecase", 
+          "Quantity": 1, 
+          "Weight": "33", 
+          "WeightUnit": 3, 
+          "Value": "10.0", 
+          "Sku": "", 
+          "Remark": "", 
+          "ProductUrl": "", 
+          "HSCode": "666666"
+        }
+      ]
+    }, 
+    "RecipientAddress": {
+      "FirstName": "Ecommerce", 
+      "LastName": "Transhipment  Solution Ltd", 
+      "Company": null, 
+      "StreetAddress": "54 Worthy Lane", 
+      "StreetAddress2": "Address2", 
+      "StreetAddress3": null, 
+     "City": "MEANLEY",
+            "State": "Western Australia",
+            "ZIPCode": "PA80 9YL",
+            "Country": "GB",
+      "PhoneNumber": "079 4281 0589", 
+      "IsResidential": true
+    }, 
+    "ChannelName": "HKRM", 
+    "Token": "99999999999999999999999999999999", 
+    "ServiceTypeCode": "Tracked_24_S", 
+    "WarehouseCode": "UK", 
+    "LabelMarkText": null, 
+    "RedundancyField": {
+      "SignatureOption": ""
+    }
+  }
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TestHKRM705669 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>验证</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮编是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>PA80</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时，面单拣货码显示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>A87</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "Version":"0.0.0.3",
+      "Data": {
+     "OrderID": "TestHKRM789051",
+ "ParcelInformation": {
+      "Weight": "30", 
+      "WeightUnit": 1, 
+      "Length": "30", 
+      "Width": "20", 
+      "Height": "10", 
+      "SizeUnit": 1, 
+      "ExistDangeroursGoods": false, 
+      "ProductInformations": [
+        {
+          "Description": "phonecase", 
+          "Quantity": 1, 
+          "Weight": "33", 
+          "WeightUnit": 3, 
+          "Value": "10.0", 
+          "Sku": "", 
+          "Remark": "", 
+          "ProductUrl": "", 
+          "HSCode": "666666"
+        }
+      ]
+    }, 
+    "RecipientAddress": {
+      "FirstName": "Ecommerce", 
+      "LastName": "Transhipment  Solution Ltd", 
+      "Company": null, 
+      "StreetAddress": "54 Worthy Lane", 
+      "StreetAddress2": "Address2", 
+      "StreetAddress3": null, 
+     "City": "MEANLEY",
+            "State": "Western Australia",
+            "ZIPCode": "PA98 9YL",
+            "Country": "GB",
+      "PhoneNumber": "079 4281 0589", 
+      "IsResidential": true
+    }, 
+    "ChannelName": "HKRM", 
+    "Token": "99999999999999999999999999999999", 
+    "ServiceTypeCode": "Tracked_24_S", 
+    "WarehouseCode": "UK", 
+    "LabelMarkText": null, 
+    "RedundancyField": {
+      "SignatureOption": ""
+    }
+  }
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TestHKRM789051 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>验证</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮编是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>PA98</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时，面单拣货码显示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>A87</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "Version":"0.0.0.3",
+      "Data": {
+     "OrderID": "TestHKRM561135",
+ "ParcelInformation": {
+      "Weight": "30", 
+      "WeightUnit": 1, 
+      "Length": "30", 
+      "Width": "20", 
+      "Height": "10", 
+      "SizeUnit": 1, 
+      "ExistDangeroursGoods": false, 
+      "ProductInformations": [
+        {
+          "Description": "phonecase", 
+          "Quantity": 1, 
+          "Weight": "33", 
+          "WeightUnit": 3, 
+          "Value": "10.0", 
+          "Sku": "", 
+          "Remark": "", 
+          "ProductUrl": "", 
+          "HSCode": "666666"
+        }
+      ]
+    }, 
+    "RecipientAddress": {
+      "FirstName": "Ecommerce", 
+      "LastName": "Transhipment  Solution Ltd", 
+      "Company": null, 
+      "StreetAddress": "54 Worthy Lane", 
+      "StreetAddress2": "Address2", 
+      "StreetAddress3": null, 
+     "City": "MEANLEY",
+            "State": "Western Australia",
+            "ZIPCode": "PE1 9YL",
+            "Country": "GB",
+      "PhoneNumber": "079 4281 0589", 
+      "IsResidential": true
+    }, 
+    "ChannelName": "HKRM", 
+    "Token": "99999999999999999999999999999999", 
+    "ServiceTypeCode": "Tracked_24_S", 
+    "WarehouseCode": "UK", 
+    "LabelMarkText": null, 
+    "RedundancyField": {
+      "SignatureOption": ""
+    }
+  }
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TestHKRM561135 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>验证</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮编是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>PE1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时，面单拣货码显示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>N47</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "Version":"0.0.0.3",
+      "Data": {
+     "OrderID": "TestHKRM654923",
+ "ParcelInformation": {
+      "Weight": "30", 
+      "WeightUnit": 1, 
+      "Length": "30", 
+      "Width": "20", 
+      "Height": "10", 
+      "SizeUnit": 1, 
+      "ExistDangeroursGoods": false, 
+      "ProductInformations": [
+        {
+          "Description": "phonecase", 
+          "Quantity": 1, 
+          "Weight": "33", 
+          "WeightUnit": 3, 
+          "Value": "10.0", 
+          "Sku": "", 
+          "Remark": "", 
+          "ProductUrl": "", 
+          "HSCode": "666666"
+        }
+      ]
+    }, 
+    "RecipientAddress": {
+      "FirstName": "Ecommerce", 
+      "LastName": "Transhipment  Solution Ltd", 
+      "Company": null, 
+      "StreetAddress": "54 Worthy Lane", 
+      "StreetAddress2": "Address2", 
+      "StreetAddress3": null, 
+     "City": "MEANLEY",
+            "State": "Western Australia",
+            "ZIPCode": "PE2 9YL",
+            "Country": "GB",
+      "PhoneNumber": "079 4281 0589", 
+      "IsResidential": true
+    }, 
+    "ChannelName": "HKRM", 
+    "Token": "99999999999999999999999999999999", 
+    "ServiceTypeCode": "Tracked_24_S", 
+    "WarehouseCode": "UK", 
+    "LabelMarkText": null, 
+    "RedundancyField": {
+      "SignatureOption": ""
+    }
+  }
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TestHKRM654923 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>验证</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮编是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>PE2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时，面单拣货码显示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>N47</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "Version":"0.0.0.3",
+      "Data": {
+     "OrderID": "TestHKRM708749",
+ "ParcelInformation": {
+      "Weight": "30", 
+      "WeightUnit": 1, 
+      "Length": "30", 
+      "Width": "20", 
+      "Height": "10", 
+      "SizeUnit": 1, 
+      "ExistDangeroursGoods": false, 
+      "ProductInformations": [
+        {
+          "Description": "phonecase", 
+          "Quantity": 1, 
+          "Weight": "33", 
+          "WeightUnit": 3, 
+          "Value": "10.0", 
+          "Sku": "", 
+          "Remark": "", 
+          "ProductUrl": "", 
+          "HSCode": "666666"
+        }
+      ]
+    }, 
+    "RecipientAddress": {
+      "FirstName": "Ecommerce", 
+      "LastName": "Transhipment  Solution Ltd", 
+      "Company": null, 
+      "StreetAddress": "54 Worthy Lane", 
+      "StreetAddress2": "Address2", 
+      "StreetAddress3": null, 
+     "City": "MEANLEY",
+            "State": "Western Australia",
+            "ZIPCode": "PE99 9YL",
+            "Country": "GB",
+      "PhoneNumber": "079 4281 0589", 
+      "IsResidential": true
+    }, 
+    "ChannelName": "HKRM", 
+    "Token": "99999999999999999999999999999999", 
+    "ServiceTypeCode": "Tracked_24_S", 
+    "WarehouseCode": "UK", 
+    "LabelMarkText": null, 
+    "RedundancyField": {
+      "SignatureOption": ""
+    }
+  }
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "Version":"0.0.0.3",
+      "Data": {
+     "OrderID": "TestHKRM169515",
+ "ParcelInformation": {
+      "Weight": "30", 
+      "WeightUnit": 1, 
+      "Length": "30", 
+      "Width": "20", 
+      "Height": "10", 
+      "SizeUnit": 1, 
+      "ExistDangeroursGoods": false, 
+      "ProductInformations": [
+        {
+          "Description": "phonecase", 
+          "Quantity": 1, 
+          "Weight": "33", 
+          "WeightUnit": 3, 
+          "Value": "10.0", 
+          "Sku": "", 
+          "Remark": "", 
+          "ProductUrl": "", 
+          "HSCode": "666666"
+        }
+      ]
+    }, 
+    "RecipientAddress": {
+      "FirstName": "Ecommerce", 
+      "LastName": "Transhipment  Solution Ltd", 
+      "Company": null, 
+      "StreetAddress": "54 Worthy Lane", 
+      "StreetAddress2": "Address2", 
+      "StreetAddress3": null, 
+     "City": "MEANLEY",
+            "State": "Western Australia",
+            "ZIPCode": "PH1 9YL",
+            "Country": "GB",
+      "PhoneNumber": "079 4281 0589", 
+      "IsResidential": true
+    }, 
+    "ChannelName": "HKRM", 
+    "Token": "99999999999999999999999999999999", 
+    "ServiceTypeCode": "Tracked_24_S", 
+    "WarehouseCode": "UK", 
+    "LabelMarkText": null, 
+    "RedundancyField": {
+      "SignatureOption": ""
+    }
+  }
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TestHKRM883664 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>验证</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮编是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>SO24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时，面单拣货码显示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>X15</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TestHKRM708749 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>验证</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮编是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>PE99</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时，面单拣货码显示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>N47</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TestHKRM169515 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>验证</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮编是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>PH1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时，面单拣货码显示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>A95</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "Version":"0.0.0.3",
+      "Data": {
+     "OrderID": "TestHKRM883664",
+ "ParcelInformation": {
+      "Weight": "30", 
+      "WeightUnit": 1, 
+      "Length": "30", 
+      "Width": "20", 
+      "Height": "10", 
+      "SizeUnit": 1, 
+      "ExistDangeroursGoods": false, 
+      "ProductInformations": [
+        {
+          "Description": "phonecase", 
+          "Quantity": 1, 
+          "Weight": "33", 
+          "WeightUnit": 3, 
+          "Value": "10.0", 
+          "Sku": "", 
+          "Remark": "", 
+          "ProductUrl": "", 
+          "HSCode": "666666"
+        }
+      ]
+    }, 
+    "RecipientAddress": {
+      "FirstName": "Ecommerce", 
+      "LastName": "Transhipment  Solution Ltd", 
+      "Company": null, 
+      "StreetAddress": "54 Worthy Lane", 
+      "StreetAddress2": "Address2", 
+      "StreetAddress3": null, 
+     "City": "MEANLEY",
+            "State": "Western Australia",
+            "ZIPCode": "SO24 9YL",
+            "Country": "GB",
+      "PhoneNumber": "079 4281 0589", 
+      "IsResidential": true
+    }, 
+    "ChannelName": "HKRM", 
+    "Token": "99999999999999999999999999999999", 
+    "ServiceTypeCode": "Tracked_24_S", 
+    "WarehouseCode": "UK", 
+    "LabelMarkText": null, 
+    "RedundancyField": {
+      "SignatureOption": ""
+    }
+  }
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "Version":"0.0.0.3",
+      "Data": {
+     "OrderID": "TestHKRM799922",
+ "ParcelInformation": {
+      "Weight": "30", 
+      "WeightUnit": 1, 
+      "Length": "30", 
+      "Width": "20", 
+      "Height": "10", 
+      "SizeUnit": 1, 
+      "ExistDangeroursGoods": false, 
+      "ProductInformations": [
+        {
+          "Description": "phonecase", 
+          "Quantity": 1, 
+          "Weight": "33", 
+          "WeightUnit": 3, 
+          "Value": "10.0", 
+          "Sku": "", 
+          "Remark": "", 
+          "ProductUrl": "", 
+          "HSCode": "666666"
+        }
+      ]
+    }, 
+    "RecipientAddress": {
+      "FirstName": "Ecommerce", 
+      "LastName": "Transhipment  Solution Ltd", 
+      "Company": null, 
+      "StreetAddress": "54 Worthy Lane", 
+      "StreetAddress2": "Address2", 
+      "StreetAddress3": null, 
+     "City": "MEANLEY",
+            "State": "Western Australia",
+            "ZIPCode": "SO25 9YL",
+            "Country": "GB",
+      "PhoneNumber": "079 4281 0589", 
+      "IsResidential": true
+    }, 
+    "ChannelName": "HKRM", 
+    "Token": "99999999999999999999999999999999", 
+    "ServiceTypeCode": "Tracked_24_S", 
+    "WarehouseCode": "UK", 
+    "LabelMarkText": null, 
+    "RedundancyField": {
+      "SignatureOption": ""
+    }
+  }
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TestHKRM799922 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>验证</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮编是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>SO25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时，面单拣货码显示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>X15</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "Version":"0.0.0.3",
+      "Data": {
+     "OrderID": "TestHKRM955475",
+ "ParcelInformation": {
+      "Weight": "30", 
+      "WeightUnit": 1, 
+      "Length": "30", 
+      "Width": "20", 
+      "Height": "10", 
+      "SizeUnit": 1, 
+      "ExistDangeroursGoods": false, 
+      "ProductInformations": [
+        {
+          "Description": "phonecase", 
+          "Quantity": 1, 
+          "Weight": "33", 
+          "WeightUnit": 3, 
+          "Value": "10.0", 
+          "Sku": "", 
+          "Remark": "", 
+          "ProductUrl": "", 
+          "HSCode": "666666"
+        }
+      ]
+    }, 
+    "RecipientAddress": {
+      "FirstName": "Ecommerce", 
+      "LastName": "Transhipment  Solution Ltd", 
+      "Company": null, 
+      "StreetAddress": "54 Worthy Lane", 
+      "StreetAddress2": "Address2", 
+      "StreetAddress3": null, 
+     "City": "MEANLEY",
+            "State": "Western Australia",
+            "ZIPCode": "SO30 9YL",
+            "Country": "GB",
+      "PhoneNumber": "079 4281 0589", 
+      "IsResidential": true
+    }, 
+    "ChannelName": "HKRM", 
+    "Token": "99999999999999999999999999999999", 
+    "ServiceTypeCode": "Tracked_24_S", 
+    "WarehouseCode": "UK", 
+    "LabelMarkText": null, 
+    "RedundancyField": {
+      "SignatureOption": ""
+    }
+  }
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TestHKRM955475 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>验证</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮编是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>SO30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时，面单拣货码显示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>X15</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "Version":"0.0.0.3",
+      "Data": {
+     "OrderID": "TestHKRM242652",
+ "ParcelInformation": {
+      "Weight": "30", 
+      "WeightUnit": 1, 
+      "Length": "30", 
+      "Width": "20", 
+      "Height": "10", 
+      "SizeUnit": 1, 
+      "ExistDangeroursGoods": false, 
+      "ProductInformations": [
+        {
+          "Description": "phonecase", 
+          "Quantity": 1, 
+          "Weight": "33", 
+          "WeightUnit": 3, 
+          "Value": "10.0", 
+          "Sku": "", 
+          "Remark": "", 
+          "ProductUrl": "", 
+          "HSCode": "666666"
+        }
+      ]
+    }, 
+    "RecipientAddress": {
+      "FirstName": "Ecommerce", 
+      "LastName": "Transhipment  Solution Ltd", 
+      "Company": null, 
+      "StreetAddress": "54 Worthy Lane", 
+      "StreetAddress2": "Address2", 
+      "StreetAddress3": null, 
+     "City": "MEANLEY",
+            "State": "Western Australia",
+            "ZIPCode": "SR9 9YL",
+            "Country": "GB",
+      "PhoneNumber": "079 4281 0589", 
+      "IsResidential": true
+    }, 
+    "ChannelName": "HKRM", 
+    "Token": "99999999999999999999999999999999", 
+    "ServiceTypeCode": "Tracked_24_S", 
+    "WarehouseCode": "UK", 
+    "LabelMarkText": null, 
+    "RedundancyField": {
+      "SignatureOption": ""
+    }
+  }
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TestHKRM242652 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>验证</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮编是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>SR9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时，面单拣货码显示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>E71</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "Version":"0.0.0.3",
+      "Data": {
+     "OrderID": "TestHKRM108122",
+ "ParcelInformation": {
+      "Weight": "30", 
+      "WeightUnit": 1, 
+      "Length": "30", 
+      "Width": "20", 
+      "Height": "10", 
+      "SizeUnit": 1, 
+      "ExistDangeroursGoods": false, 
+      "ProductInformations": [
+        {
+          "Description": "phonecase", 
+          "Quantity": 1, 
+          "Weight": "33", 
+          "WeightUnit": 3, 
+          "Value": "10.0", 
+          "Sku": "", 
+          "Remark": "", 
+          "ProductUrl": "", 
+          "HSCode": "666666"
         }
       ]
     }, 
@@ -619,20 +2773,77 @@
     }
   }
 }</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TestHKRM108122 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>验证</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮编是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>SR43</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时，面单拣货码显示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>E71</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>{
- "Version":"0.0.0.3",
-    "Data": {
-        "OrderID": "TestHKRM8374XR",
-"ParcelInformation": {
-      "Weight": "50", 
-      "WeightUnit": 3, 
+    "Version":"0.0.0.3",
+      "Data": {
+     "OrderID": "TestHKRM409491",
+ "ParcelInformation": {
+      "Weight": "30", 
+      "WeightUnit": 1, 
       "Length": "30", 
       "Width": "20", 
-      "Height": "2", 
-      "SizeUnit": 2, 
+      "Height": "10", 
+      "SizeUnit": 1, 
       "ExistDangeroursGoods": false, 
       "ProductInformations": [
         {
@@ -644,7 +2855,7 @@
           "Sku": "", 
           "Remark": "", 
           "ProductUrl": "", 
-          "HSCode": "testcode"
+          "HSCode": "666666"
         }
       ]
     }, 
@@ -657,7 +2868,7 @@
       "StreetAddress3": null, 
      "City": "MEANLEY",
             "State": "Western Australia",
-            "ZIPCode": "SR43 9YL",
+            "ZIPCode": "SR0 9YL",
             "Country": "GB",
       "PhoneNumber": "079 4281 0589", 
       "IsResidential": true
@@ -672,20 +2883,77 @@
     }
   }
 }</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "Version":"0.0.0.3",
-    "Data": {
-        "OrderID": "TestHKRM8374XR",
-"ParcelInformation": {
-      "Weight": "50", 
-      "WeightUnit": 3, 
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TestHKRM409491 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>验证</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮编是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>SR0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时，面单拣货码显示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>R35</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+    "Version":"0.0.0.3",
+      "Data": {
+     "OrderID": "TestHKRM547321",
+ "ParcelInformation": {
+      "Weight": "30", 
+      "WeightUnit": 1, 
       "Length": "30", 
       "Width": "20", 
-      "Height": "2", 
-      "SizeUnit": 2, 
+      "Height": "10", 
+      "SizeUnit": 1, 
       "ExistDangeroursGoods": false, 
       "ProductInformations": [
         {
@@ -697,7 +2965,7 @@
           "Sku": "", 
           "Remark": "", 
           "ProductUrl": "", 
-          "HSCode": "testcode"
+          "HSCode": "666666"
         }
       ]
     }, 
@@ -710,7 +2978,7 @@
       "StreetAddress3": null, 
      "City": "MEANLEY",
             "State": "Western Australia",
-            "ZIPCode": "SR43 9YL",
+            "ZIPCode": "SS1 9YL",
             "Country": "GB",
       "PhoneNumber": "079 4281 0589", 
       "IsResidential": true
@@ -724,138 +2992,85 @@
       "SignatureOption": ""
     }
   }
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "Version":"0.0.0.3",
-    "Data": {
-        "OrderID": "TestHKRM8374XR",
-"ParcelInformation": {
-      "Weight": "50", 
-      "WeightUnit": 3, 
-      "Length": "30", 
-      "Width": "20", 
-      "Height": "2", 
-      "SizeUnit": 2, 
-      "ExistDangeroursGoods": false, 
-      "ProductInformations": [
-        {
-          "Description": "phonecase", 
-          "Quantity": 1, 
-          "Weight": "33", 
-          "WeightUnit": 3, 
-          "Value": "10.0", 
-          "Sku": "", 
-          "Remark": "", 
-          "ProductUrl": "", 
-          "HSCode": "testcode"
-        }
-      ]
-    }, 
-    "RecipientAddress": {
-      "FirstName": "Ecommerce", 
-      "LastName": "Transhipment  Solution Ltd", 
-      "Company": null, 
-      "StreetAddress": "54 Worthy Lane", 
-      "StreetAddress2": "Address2", 
-      "StreetAddress3": null, 
-     "City": "MEANLEY",
-            "State": "Western Australia",
-            "ZIPCode": "SR43 9YL",
-            "Country": "GB",
-      "PhoneNumber": "079 4281 0589", 
-      "IsResidential": true
-    }, 
-    "ChannelName": "HKRM", 
-    "Token": "99999999999999999999999999999999", 
-    "ServiceTypeCode": "Tracked_24_S", 
-    "WarehouseCode": "UK", 
-    "LabelMarkText": null, 
-    "RedundancyField": {
-      "SignatureOption": ""
-    }
-  }
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>LabelImage</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "Version":"0.0.0.3",
-    "Data": {
-        "OrderID": "TestHKRM8374XR",
-"ParcelInformation": {
-      "Weight": "50", 
-      "WeightUnit": 3, 
-      "Length": "30", 
-      "Width": "20", 
-      "Height": "2", 
-      "SizeUnit": 2, 
-      "ExistDangeroursGoods": false, 
-      "ProductInformations": [
-        {
-          "Description": "phonecase", 
-          "Quantity": 1, 
-          "Weight": "33", 
-          "WeightUnit": 3, 
-          "Value": "10.0", 
-          "Sku": "", 
-          "Remark": "", 
-          "ProductUrl": "", 
-          "HSCode": "testcode"
-        }
-      ]
-    }, 
-    "RecipientAddress": {
-      "FirstName": "Ecommerce", 
-      "LastName": "Transhipment  Solution Ltd", 
-      "Company": null, 
-      "StreetAddress": "54 Worthy Lane", 
-      "StreetAddress2": "Address2", 
-      "StreetAddress3": null, 
-     "City": "MEANLEY",
-            "State": "Western Australia",
-            "ZIPCode": "BB7 9YL",
-            "Country": "GB",
-      "PhoneNumber": "079 4281 0589", 
-      "IsResidential": true
-    }, 
-    "ChannelName": "HKRM", 
-    "Token": "99999999999999999999999999999999", 
-    "ServiceTypeCode": "Large_Letter_48", 
-    "WarehouseCode": "UK", 
-    "LabelMarkText": null, 
-    "RedundancyField": {
-      "SignatureOption": ""
-    }
-  }
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.109.224:8000/V4/Api/LabelPrintService/CancelLabel?type=json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+}
+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TestHKRM547321 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>验证</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮编是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>SS1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时，面单拣货码显示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>R35</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -943,8 +3158,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -966,6 +3187,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1005,9 +3244,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1042,25 +3281,25 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1069,7 +3308,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1084,23 +3323,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1410,9 +3664,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1456,13 +3710,13 @@
       <c r="D2" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
@@ -1501,7 +3755,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E4" s="21" t="s">
         <v>108</v>
@@ -1929,7 +4183,7 @@
   <mergeCells count="1">
     <mergeCell ref="E2:I2"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
     <hyperlink ref="D3" r:id="rId2"/>
@@ -1978,11 +4232,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1993,7 +4247,9 @@
     <col min="4" max="4" width="44.875" style="2" customWidth="1"/>
     <col min="5" max="5" width="23.75" style="3" customWidth="1"/>
     <col min="6" max="6" width="14" style="3" customWidth="1"/>
-    <col min="7" max="9" width="34.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="34.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="44.875" style="1" customWidth="1"/>
     <col min="10" max="10" width="31.75" style="1"/>
     <col min="11" max="11" width="21.625" style="1" customWidth="1"/>
     <col min="12" max="12" width="31.75" style="1"/>
@@ -2043,1088 +4299,1338 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="31">
-        <v>1</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>153</v>
+      <c r="D2" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>154</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="35"/>
       <c r="J2" s="11"/>
       <c r="K2" s="9"/>
       <c r="L2" s="10"/>
       <c r="M2" s="9"/>
     </row>
     <row r="3" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="31">
-        <v>2</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>159</v>
+      <c r="D3" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>156</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="35"/>
       <c r="J3" s="11"/>
       <c r="K3" s="9"/>
       <c r="L3" s="10"/>
       <c r="M3" s="9"/>
     </row>
     <row r="4" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="31">
-        <v>3</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>155</v>
+      <c r="D4" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>173</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="35"/>
       <c r="J4" s="11"/>
       <c r="K4" s="9"/>
       <c r="L4" s="10"/>
       <c r="M4" s="9"/>
     </row>
     <row r="5" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="31">
-        <v>4</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>156</v>
+      <c r="D5" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>175</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="35"/>
       <c r="J5" s="11"/>
       <c r="K5" s="9"/>
       <c r="L5" s="10"/>
       <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="31">
-        <v>5</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>154</v>
+      <c r="D6" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>177</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="35"/>
       <c r="J6" s="11"/>
       <c r="K6" s="9"/>
       <c r="L6" s="10"/>
       <c r="M6" s="9"/>
     </row>
     <row r="7" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="31">
-        <v>6</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>154</v>
+      <c r="D7" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>179</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="35"/>
       <c r="J7" s="11"/>
       <c r="K7" s="9"/>
       <c r="L7" s="10"/>
       <c r="M7" s="9"/>
     </row>
     <row r="8" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="31">
-        <v>7</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>154</v>
+      <c r="D8" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>182</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="35"/>
       <c r="J8" s="11"/>
       <c r="K8" s="9"/>
       <c r="L8" s="10"/>
       <c r="M8" s="9"/>
     </row>
     <row r="9" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="31">
-        <v>8</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>154</v>
+      <c r="D9" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>183</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="35"/>
       <c r="J9" s="11"/>
       <c r="K9" s="9"/>
       <c r="L9" s="10"/>
       <c r="M9" s="9"/>
     </row>
     <row r="10" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="31">
-        <v>9</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>154</v>
+      <c r="D10" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>185</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="35"/>
       <c r="J10" s="11"/>
       <c r="K10" s="9"/>
       <c r="L10" s="10"/>
       <c r="M10" s="9"/>
     </row>
     <row r="11" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="31">
-        <v>10</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>154</v>
+      <c r="D11" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>187</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="35"/>
       <c r="J11" s="11"/>
       <c r="K11" s="9"/>
       <c r="L11" s="10"/>
       <c r="M11" s="9"/>
     </row>
     <row r="12" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="31">
-        <v>11</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>154</v>
+      <c r="D12" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>189</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="35"/>
       <c r="J12" s="11"/>
       <c r="K12" s="9"/>
       <c r="L12" s="10"/>
       <c r="M12" s="9"/>
     </row>
     <row r="13" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="31">
-        <v>12</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>154</v>
+      <c r="D13" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>191</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="35"/>
       <c r="J13" s="11"/>
       <c r="K13" s="9"/>
       <c r="L13" s="10"/>
       <c r="M13" s="9"/>
     </row>
     <row r="14" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="31">
-        <v>13</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>154</v>
+      <c r="D14" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>193</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G14"/>
-      <c r="H14"/>
-      <c r="I14"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="35"/>
       <c r="J14" s="11"/>
       <c r="K14" s="9"/>
       <c r="L14" s="10"/>
       <c r="M14" s="9"/>
     </row>
     <row r="15" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="31">
-        <v>14</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>154</v>
+      <c r="D15" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>195</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="35"/>
       <c r="J15" s="11"/>
       <c r="K15" s="9"/>
       <c r="L15" s="10"/>
       <c r="M15" s="9"/>
     </row>
     <row r="16" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="31">
-        <v>15</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>154</v>
+      <c r="D16" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>196</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="35"/>
       <c r="J16" s="11"/>
       <c r="K16" s="9"/>
       <c r="L16" s="10"/>
       <c r="M16" s="9"/>
     </row>
     <row r="17" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="31">
-        <v>16</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>154</v>
+      <c r="D17" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>200</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="35"/>
       <c r="J17" s="11"/>
       <c r="K17" s="9"/>
       <c r="L17" s="10"/>
       <c r="M17" s="9"/>
     </row>
     <row r="18" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="31">
-        <v>17</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>154</v>
+      <c r="D18" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>201</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G18"/>
-      <c r="H18"/>
-      <c r="I18"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="35"/>
       <c r="J18" s="11"/>
       <c r="K18" s="9"/>
       <c r="L18" s="10"/>
       <c r="M18" s="9"/>
     </row>
     <row r="19" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="31">
-        <v>18</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>154</v>
+      <c r="D19" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>203</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="35"/>
       <c r="J19" s="11"/>
       <c r="K19" s="9"/>
       <c r="L19" s="10"/>
       <c r="M19" s="9"/>
     </row>
     <row r="20" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="31">
-        <v>19</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>158</v>
+      <c r="D20" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>205</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="35"/>
       <c r="J20" s="11"/>
       <c r="K20" s="9"/>
       <c r="L20" s="10"/>
       <c r="M20" s="9"/>
     </row>
     <row r="21" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="31">
-        <v>20</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>154</v>
+      <c r="D21" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>207</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G21"/>
-      <c r="H21"/>
-      <c r="I21"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="35"/>
       <c r="J21" s="11"/>
       <c r="K21" s="9"/>
       <c r="L21" s="10"/>
       <c r="M21" s="9"/>
     </row>
     <row r="22" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="31">
-        <v>21</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>154</v>
+      <c r="D22" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>209</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="35"/>
       <c r="J22" s="11"/>
       <c r="K22" s="9"/>
       <c r="L22" s="10"/>
       <c r="M22" s="9"/>
     </row>
     <row r="23" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="31">
-        <v>22</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>154</v>
+      <c r="D23" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>211</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="35"/>
       <c r="J23" s="11"/>
       <c r="K23" s="9"/>
       <c r="L23" s="10"/>
       <c r="M23" s="9"/>
     </row>
     <row r="24" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="31">
-        <v>23</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>154</v>
-      </c>
+      <c r="D24" s="31"/>
+      <c r="E24" s="34"/>
       <c r="F24" s="14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G24"/>
-      <c r="H24"/>
-      <c r="I24"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="35"/>
       <c r="J24" s="11"/>
       <c r="K24" s="9"/>
       <c r="L24" s="10"/>
       <c r="M24" s="9"/>
     </row>
     <row r="25" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="31">
-        <v>24</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>154</v>
-      </c>
+      <c r="D25" s="31"/>
+      <c r="E25" s="34"/>
       <c r="F25" s="14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G25"/>
-      <c r="H25"/>
-      <c r="I25"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="35"/>
       <c r="J25" s="11"/>
       <c r="K25" s="9"/>
       <c r="L25" s="10"/>
       <c r="M25" s="9"/>
     </row>
     <row r="26" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="31">
-        <v>25</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>154</v>
-      </c>
+      <c r="D26" s="31"/>
+      <c r="E26" s="34"/>
       <c r="F26" s="14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G26"/>
-      <c r="H26"/>
-      <c r="I26"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="35"/>
       <c r="J26" s="11"/>
       <c r="K26" s="9"/>
       <c r="L26" s="10"/>
       <c r="M26" s="9"/>
     </row>
     <row r="27" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="31">
-        <v>26</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>154</v>
-      </c>
+      <c r="D27" s="31"/>
+      <c r="E27" s="34"/>
       <c r="F27" s="14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G27"/>
-      <c r="H27"/>
-      <c r="I27"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="35"/>
       <c r="J27" s="11"/>
       <c r="K27" s="9"/>
       <c r="L27" s="10"/>
       <c r="M27" s="9"/>
     </row>
     <row r="28" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="31">
-        <v>27</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>154</v>
-      </c>
+      <c r="D28" s="31"/>
+      <c r="E28" s="34"/>
       <c r="F28" s="14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G28"/>
-      <c r="H28"/>
-      <c r="I28"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="35"/>
       <c r="J28" s="11"/>
       <c r="K28" s="9"/>
       <c r="L28" s="10"/>
       <c r="M28" s="9"/>
     </row>
     <row r="29" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="31">
-        <v>28</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>154</v>
-      </c>
+      <c r="D29" s="31"/>
+      <c r="E29" s="34"/>
       <c r="F29" s="14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G29"/>
-      <c r="H29"/>
-      <c r="I29"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="35"/>
       <c r="J29" s="11"/>
       <c r="K29" s="9"/>
       <c r="L29" s="10"/>
       <c r="M29" s="9"/>
     </row>
     <row r="30" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="31">
-        <v>29</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>154</v>
-      </c>
+      <c r="D30" s="31"/>
+      <c r="E30" s="34"/>
       <c r="F30" s="14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G30"/>
-      <c r="H30"/>
-      <c r="I30"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="35"/>
       <c r="J30" s="11"/>
       <c r="K30" s="9"/>
       <c r="L30" s="10"/>
       <c r="M30" s="9"/>
     </row>
     <row r="31" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="31">
-        <v>30</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>154</v>
-      </c>
+      <c r="D31" s="31"/>
+      <c r="E31" s="34"/>
       <c r="F31" s="14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G31"/>
-      <c r="H31"/>
-      <c r="I31"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="35"/>
       <c r="J31" s="11"/>
       <c r="K31" s="9"/>
       <c r="L31" s="10"/>
       <c r="M31" s="9"/>
     </row>
     <row r="32" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="31">
-        <v>31</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>154</v>
-      </c>
+      <c r="D32" s="31"/>
+      <c r="E32" s="34"/>
       <c r="F32" s="14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G32"/>
-      <c r="H32"/>
-      <c r="I32"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="35"/>
       <c r="J32" s="11"/>
       <c r="K32" s="9"/>
       <c r="L32" s="10"/>
       <c r="M32" s="9"/>
     </row>
     <row r="33" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="31">
-        <v>32</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>154</v>
-      </c>
+      <c r="D33" s="31"/>
+      <c r="E33" s="34"/>
       <c r="F33" s="14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G33"/>
-      <c r="H33"/>
-      <c r="I33"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="35"/>
       <c r="J33" s="11"/>
       <c r="K33" s="9"/>
       <c r="L33" s="10"/>
       <c r="M33" s="9"/>
     </row>
     <row r="34" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="31">
-        <v>33</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>154</v>
-      </c>
+      <c r="D34" s="31"/>
+      <c r="E34" s="34"/>
       <c r="F34" s="14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G34"/>
-      <c r="H34"/>
-      <c r="I34"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="35"/>
       <c r="J34" s="11"/>
       <c r="K34" s="9"/>
       <c r="L34" s="10"/>
       <c r="M34" s="9"/>
     </row>
     <row r="35" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="31">
-        <v>34</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>154</v>
-      </c>
+      <c r="D35" s="31"/>
+      <c r="E35" s="34"/>
       <c r="F35" s="14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G35"/>
-      <c r="H35"/>
-      <c r="I35"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="35"/>
       <c r="J35" s="11"/>
       <c r="K35" s="9"/>
       <c r="L35" s="10"/>
       <c r="M35" s="9"/>
     </row>
     <row r="36" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="31">
-        <v>35</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>154</v>
-      </c>
+      <c r="D36" s="31"/>
+      <c r="E36" s="34"/>
       <c r="F36" s="14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G36"/>
-      <c r="H36"/>
-      <c r="I36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="35"/>
       <c r="J36" s="11"/>
       <c r="K36" s="9"/>
       <c r="L36" s="10"/>
       <c r="M36" s="9"/>
     </row>
     <row r="37" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="31">
-        <v>36</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>154</v>
-      </c>
+      <c r="D37" s="31"/>
+      <c r="E37" s="34"/>
       <c r="F37" s="14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G37"/>
-      <c r="H37"/>
-      <c r="I37"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="35"/>
       <c r="J37" s="11"/>
       <c r="K37" s="9"/>
       <c r="L37" s="10"/>
       <c r="M37" s="9"/>
     </row>
     <row r="38" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="31">
-        <v>37</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>154</v>
-      </c>
+      <c r="D38" s="31"/>
+      <c r="E38" s="34"/>
       <c r="F38" s="14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G38"/>
-      <c r="H38"/>
-      <c r="I38"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="35"/>
       <c r="J38" s="11"/>
       <c r="K38" s="9"/>
       <c r="L38" s="10"/>
       <c r="M38" s="9"/>
     </row>
     <row r="39" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D39" s="31">
-        <v>38</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>154</v>
-      </c>
+      <c r="D39" s="31"/>
+      <c r="E39" s="34"/>
       <c r="F39" s="14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G39"/>
-      <c r="H39"/>
-      <c r="I39"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="35"/>
       <c r="J39" s="11"/>
       <c r="K39" s="9"/>
       <c r="L39" s="10"/>
       <c r="M39" s="9"/>
     </row>
     <row r="40" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="31">
-        <v>39</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>154</v>
-      </c>
+      <c r="D40" s="31"/>
+      <c r="E40" s="34"/>
       <c r="F40" s="14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G40"/>
-      <c r="H40"/>
-      <c r="I40"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="35"/>
       <c r="J40" s="11"/>
       <c r="K40" s="9"/>
       <c r="L40" s="10"/>
       <c r="M40" s="9"/>
     </row>
     <row r="41" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="B41" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="31"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="B41" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41" s="31">
-        <v>40</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="F41" s="14" t="s">
-        <v>157</v>
-      </c>
       <c r="G41"/>
-      <c r="H41"/>
-      <c r="I41"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="35"/>
       <c r="J41" s="11"/>
       <c r="K41" s="9"/>
       <c r="L41" s="10"/>
       <c r="M41" s="9"/>
     </row>
+    <row r="42" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="B42" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="31"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="G42"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="9"/>
+    </row>
+    <row r="43" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="B43" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="31"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="G43"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="35"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="9"/>
+    </row>
+    <row r="44" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="B44" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="31"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="G44"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="35"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="9"/>
+    </row>
+    <row r="45" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="B45" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="31"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="G45"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="35"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="9"/>
+    </row>
+    <row r="46" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="B46" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="31"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="G46"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="9"/>
+    </row>
+    <row r="47" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="B47" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="31"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="G47"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="35"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="9"/>
+    </row>
+    <row r="48" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="B48" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="31"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="G48"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="35"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="9"/>
+    </row>
+    <row r="49" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="B49" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="31"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="G49"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="35"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="9"/>
+    </row>
+    <row r="50" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="B50" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="31"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="G50"/>
+      <c r="H50" s="36"/>
+      <c r="I50" s="35"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="9"/>
+    </row>
+    <row r="51" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="B51" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="31"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="G51"/>
+      <c r="H51" s="36"/>
+      <c r="I51" s="35"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="9"/>
+    </row>
+    <row r="52" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="B52" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="31"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="G52"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="35"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="9"/>
+    </row>
+    <row r="53" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="B53" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="31"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="G53"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="35"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="9"/>
+    </row>
+    <row r="54" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="B54" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="31"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="G54"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="35"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="9"/>
+    </row>
+    <row r="55" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="B55" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="31"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="G55"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="35"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="10"/>
+      <c r="M55" s="9"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F2"/>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3136,7 +5642,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3223,7 +5729,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F2"/>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3235,7 +5741,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3322,7 +5828,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F2"/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/src/main/resources/apibatch.xlsx
+++ b/src/main/resources/apibatch.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Jarvan\Desktop\apiFrame\apiFrame\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Jarvan\Desktop\svn2\trunk\apiFrame\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">getRegion!$A$1:$F$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">getRegionForReceiving!$A$1:$F$2</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcOnSave="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -628,63 +628,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">TestHKRM115305 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>验证</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>邮编是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>BN91</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>时，面单拣货码显示</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>BN91</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>{
     "Version":"0.0.0.3",
       "Data": {
@@ -2886,63 +2829,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">TestHKRM409491 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>验证</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>邮编是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>SR0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>时，面单拣货码显示</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>R35</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">{
     "Version":"0.0.0.3",
       "Data": {
@@ -3050,6 +2936,120 @@
         <family val="1"/>
       </rPr>
       <t>R35</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TestHKRM409491 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>验证</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮编是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>SR0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时，面单拣货码显示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>___</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TestHKRM115305 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>验证</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮编是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>BN91</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时，面单拣货码显示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Q19</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -4236,7 +4236,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4244,7 +4244,7 @@
     <col min="1" max="1" width="6.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="8.625" style="2" customWidth="1"/>
     <col min="3" max="3" width="6.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="44.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="56" style="2" customWidth="1"/>
     <col min="5" max="5" width="23.75" style="3" customWidth="1"/>
     <col min="6" max="6" width="14" style="3" customWidth="1"/>
     <col min="7" max="7" width="34.5" style="1" customWidth="1"/>
@@ -4309,7 +4309,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>155</v>
+        <v>212</v>
       </c>
       <c r="E2" s="34" t="s">
         <v>154</v>
@@ -4336,10 +4336,10 @@
         <v>7</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>152</v>
@@ -4363,10 +4363,10 @@
         <v>7</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>152</v>
@@ -4390,10 +4390,10 @@
         <v>7</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>152</v>
@@ -4417,10 +4417,10 @@
         <v>7</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F6" s="14" t="s">
         <v>152</v>
@@ -4444,10 +4444,10 @@
         <v>7</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F7" s="14" t="s">
         <v>152</v>
@@ -4471,10 +4471,10 @@
         <v>7</v>
       </c>
       <c r="D8" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="E8" s="34" t="s">
         <v>181</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>182</v>
       </c>
       <c r="F8" s="14" t="s">
         <v>152</v>
@@ -4498,10 +4498,10 @@
         <v>7</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F9" s="14" t="s">
         <v>152</v>
@@ -4525,10 +4525,10 @@
         <v>7</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F10" s="14" t="s">
         <v>152</v>
@@ -4552,10 +4552,10 @@
         <v>7</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F11" s="14" t="s">
         <v>152</v>
@@ -4579,10 +4579,10 @@
         <v>7</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F12" s="14" t="s">
         <v>152</v>
@@ -4606,10 +4606,10 @@
         <v>7</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F13" s="14" t="s">
         <v>152</v>
@@ -4633,10 +4633,10 @@
         <v>7</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F14" s="14" t="s">
         <v>152</v>
@@ -4660,10 +4660,10 @@
         <v>7</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F15" s="14" t="s">
         <v>152</v>
@@ -4687,10 +4687,10 @@
         <v>7</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F16" s="14" t="s">
         <v>152</v>
@@ -4714,10 +4714,10 @@
         <v>7</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F17" s="14" t="s">
         <v>152</v>
@@ -4741,10 +4741,10 @@
         <v>7</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F18" s="14" t="s">
         <v>152</v>
@@ -4768,10 +4768,10 @@
         <v>7</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E19" s="34" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F19" s="14" t="s">
         <v>152</v>
@@ -4795,10 +4795,10 @@
         <v>7</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F20" s="14" t="s">
         <v>152</v>
@@ -4822,10 +4822,10 @@
         <v>7</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F21" s="14" t="s">
         <v>152</v>
@@ -4849,10 +4849,10 @@
         <v>7</v>
       </c>
       <c r="D22" s="31" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F22" s="14" t="s">
         <v>152</v>
@@ -4876,10 +4876,10 @@
         <v>7</v>
       </c>
       <c r="D23" s="31" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E23" s="34" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F23" s="14" t="s">
         <v>152</v>
@@ -5285,7 +5285,7 @@
     </row>
     <row r="41" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B41" s="33" t="s">
         <v>14</v>
@@ -5308,7 +5308,7 @@
     </row>
     <row r="42" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B42" s="33" t="s">
         <v>14</v>
@@ -5331,7 +5331,7 @@
     </row>
     <row r="43" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B43" s="33" t="s">
         <v>14</v>
@@ -5354,7 +5354,7 @@
     </row>
     <row r="44" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B44" s="33" t="s">
         <v>14</v>
@@ -5377,7 +5377,7 @@
     </row>
     <row r="45" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B45" s="33" t="s">
         <v>14</v>
@@ -5400,7 +5400,7 @@
     </row>
     <row r="46" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B46" s="33" t="s">
         <v>14</v>
@@ -5423,7 +5423,7 @@
     </row>
     <row r="47" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B47" s="33" t="s">
         <v>14</v>
@@ -5446,7 +5446,7 @@
     </row>
     <row r="48" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="33" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B48" s="33" t="s">
         <v>14</v>
@@ -5469,7 +5469,7 @@
     </row>
     <row r="49" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="33" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B49" s="33" t="s">
         <v>14</v>
@@ -5492,7 +5492,7 @@
     </row>
     <row r="50" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="33" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B50" s="33" t="s">
         <v>14</v>
@@ -5515,7 +5515,7 @@
     </row>
     <row r="51" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="33" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B51" s="33" t="s">
         <v>14</v>
@@ -5538,7 +5538,7 @@
     </row>
     <row r="52" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="33" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B52" s="33" t="s">
         <v>14</v>
@@ -5561,7 +5561,7 @@
     </row>
     <row r="53" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B53" s="33" t="s">
         <v>14</v>
@@ -5584,7 +5584,7 @@
     </row>
     <row r="54" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B54" s="33" t="s">
         <v>14</v>
@@ -5607,7 +5607,7 @@
     </row>
     <row r="55" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="33" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B55" s="33" t="s">
         <v>14</v>

--- a/src/main/resources/apibatch.xlsx
+++ b/src/main/resources/apibatch.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13125" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="api_info" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="CancelLabel" sheetId="8" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">getCountry!$A$1:$F$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">getCountry!$A$1:$F$12</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">getRegion!$A$1:$F$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">getRegionForReceiving!$A$1:$F$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">CancelLabel!$A$1:$F$4001</definedName>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8368" uniqueCount="4119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8196" uniqueCount="4119">
   <si>
     <t>ApiId(接口编号)</t>
   </si>
@@ -482,135 +482,6 @@
     <t>11</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
     <t>ActualReponseData(实际响应数据)</t>
   </si>
   <si>
@@ -661,6 +532,135 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
     <t>55</t>
   </si>
   <si>
@@ -12504,8 +12504,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -12593,6 +12593,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -12600,31 +12601,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12645,49 +12631,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12695,14 +12654,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12715,8 +12667,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12778,13 +12778,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12802,13 +12820,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12820,7 +12838,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12832,7 +12856,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12844,43 +12928,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12892,55 +12940,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12978,6 +12978,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -12989,30 +13009,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -13050,19 +13046,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -13070,8 +13055,23 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -13081,10 +13081,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -13093,131 +13093,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
@@ -13431,7 +13431,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -14285,12 +14285,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M55"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomLeft" activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.775" defaultRowHeight="13.5"/>
@@ -14609,997 +14609,8 @@
       <c r="L12" s="17"/>
       <c r="M12" s="21"/>
     </row>
-    <row r="13" ht="12.75" customHeight="1" spans="1:13">
-      <c r="A13" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="G13"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="21"/>
-    </row>
-    <row r="14" ht="12.75" customHeight="1" spans="1:13">
-      <c r="A14" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="G14"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="21"/>
-    </row>
-    <row r="15" ht="12.75" customHeight="1" spans="1:13">
-      <c r="A15" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="G15"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="21"/>
-    </row>
-    <row r="16" ht="12.75" customHeight="1" spans="1:13">
-      <c r="A16" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="G16"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="21"/>
-    </row>
-    <row r="17" ht="12.75" customHeight="1" spans="1:13">
-      <c r="A17" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="G17"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="21"/>
-    </row>
-    <row r="18" ht="12.75" customHeight="1" spans="1:13">
-      <c r="A18" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="G18"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="21"/>
-    </row>
-    <row r="19" ht="12.75" customHeight="1" spans="1:13">
-      <c r="A19" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="21"/>
-    </row>
-    <row r="20" ht="12.75" customHeight="1" spans="1:13">
-      <c r="A20" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="G20"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="21"/>
-    </row>
-    <row r="21" ht="12.75" customHeight="1" spans="1:13">
-      <c r="A21" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D21" s="24"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="G21"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="21"/>
-    </row>
-    <row r="22" ht="12.75" customHeight="1" spans="1:13">
-      <c r="A22" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="G22"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="21"/>
-    </row>
-    <row r="23" ht="12.75" customHeight="1" spans="1:13">
-      <c r="A23" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="G23"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="21"/>
-    </row>
-    <row r="24" ht="12.75" customHeight="1" spans="1:13">
-      <c r="A24" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="B24" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D24" s="24"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="G24"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="21"/>
-    </row>
-    <row r="25" ht="12.75" customHeight="1" spans="1:13">
-      <c r="A25" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="B25" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D25" s="24"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="G25"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="21"/>
-    </row>
-    <row r="26" ht="12.75" customHeight="1" spans="1:13">
-      <c r="A26" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="B26" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D26" s="24"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="G26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="21"/>
-    </row>
-    <row r="27" ht="12.75" customHeight="1" spans="1:13">
-      <c r="A27" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="G27"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="21"/>
-    </row>
-    <row r="28" ht="12.75" customHeight="1" spans="1:13">
-      <c r="A28" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="B28" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D28" s="24"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="G28"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="21"/>
-    </row>
-    <row r="29" ht="12.75" customHeight="1" spans="1:13">
-      <c r="A29" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="B29" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D29" s="24"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="G29"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="21"/>
-    </row>
-    <row r="30" ht="12.75" customHeight="1" spans="1:13">
-      <c r="A30" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="B30" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D30" s="24"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="G30"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="21"/>
-    </row>
-    <row r="31" ht="12.75" customHeight="1" spans="1:13">
-      <c r="A31" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="B31" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D31" s="24"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="G31"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="21"/>
-    </row>
-    <row r="32" ht="12.75" customHeight="1" spans="1:13">
-      <c r="A32" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="B32" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D32" s="24"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="G32"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="21"/>
-    </row>
-    <row r="33" ht="12.75" customHeight="1" spans="1:13">
-      <c r="A33" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="B33" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C33" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D33" s="24"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="G33"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="21"/>
-    </row>
-    <row r="34" ht="12.75" customHeight="1" spans="1:13">
-      <c r="A34" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="B34" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D34" s="24"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="G34"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="21"/>
-    </row>
-    <row r="35" ht="12.75" customHeight="1" spans="1:13">
-      <c r="A35" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="B35" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C35" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D35" s="24"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="G35"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="21"/>
-    </row>
-    <row r="36" ht="12.75" customHeight="1" spans="1:13">
-      <c r="A36" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="B36" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D36" s="24"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="G36"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="21"/>
-    </row>
-    <row r="37" ht="12.75" customHeight="1" spans="1:13">
-      <c r="A37" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="B37" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C37" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D37" s="24"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="G37"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="21"/>
-    </row>
-    <row r="38" ht="12.75" customHeight="1" spans="1:13">
-      <c r="A38" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="B38" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C38" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D38" s="24"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="G38"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="21"/>
-    </row>
-    <row r="39" ht="12.75" customHeight="1" spans="1:13">
-      <c r="A39" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="B39" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C39" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D39" s="24"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="G39"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="21"/>
-    </row>
-    <row r="40" ht="12.75" customHeight="1" spans="1:13">
-      <c r="A40" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="B40" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C40" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D40" s="24"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="G40"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="21"/>
-    </row>
-    <row r="41" ht="12.75" customHeight="1" spans="1:13">
-      <c r="A41" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="B41" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C41" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D41" s="24"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="G41"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="21"/>
-    </row>
-    <row r="42" ht="12.75" customHeight="1" spans="1:13">
-      <c r="A42" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="B42" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C42" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D42" s="24"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="G42"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="21"/>
-      <c r="L42" s="17"/>
-      <c r="M42" s="21"/>
-    </row>
-    <row r="43" ht="12.75" customHeight="1" spans="1:13">
-      <c r="A43" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="B43" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C43" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D43" s="24"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="G43"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="21"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="21"/>
-    </row>
-    <row r="44" ht="12.75" customHeight="1" spans="1:13">
-      <c r="A44" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="B44" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C44" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D44" s="24"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="G44"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="21"/>
-      <c r="L44" s="17"/>
-      <c r="M44" s="21"/>
-    </row>
-    <row r="45" ht="12.75" customHeight="1" spans="1:13">
-      <c r="A45" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="B45" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C45" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D45" s="24"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="G45"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="27"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="21"/>
-      <c r="L45" s="17"/>
-      <c r="M45" s="21"/>
-    </row>
-    <row r="46" ht="12.75" customHeight="1" spans="1:13">
-      <c r="A46" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="B46" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C46" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D46" s="24"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="G46"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="27"/>
-      <c r="J46" s="20"/>
-      <c r="K46" s="21"/>
-      <c r="L46" s="17"/>
-      <c r="M46" s="21"/>
-    </row>
-    <row r="47" ht="12.75" customHeight="1" spans="1:13">
-      <c r="A47" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="B47" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C47" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D47" s="24"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="G47"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="27"/>
-      <c r="J47" s="20"/>
-      <c r="K47" s="21"/>
-      <c r="L47" s="17"/>
-      <c r="M47" s="21"/>
-    </row>
-    <row r="48" ht="12.75" customHeight="1" spans="1:13">
-      <c r="A48" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="B48" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C48" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D48" s="24"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="G48"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="27"/>
-      <c r="J48" s="20"/>
-      <c r="K48" s="21"/>
-      <c r="L48" s="17"/>
-      <c r="M48" s="21"/>
-    </row>
-    <row r="49" ht="12.75" customHeight="1" spans="1:13">
-      <c r="A49" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="B49" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C49" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D49" s="24"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="G49"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="27"/>
-      <c r="J49" s="20"/>
-      <c r="K49" s="21"/>
-      <c r="L49" s="17"/>
-      <c r="M49" s="21"/>
-    </row>
-    <row r="50" ht="12.75" customHeight="1" spans="1:13">
-      <c r="A50" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="B50" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C50" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D50" s="24"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="G50"/>
-      <c r="H50" s="26"/>
-      <c r="I50" s="27"/>
-      <c r="J50" s="20"/>
-      <c r="K50" s="21"/>
-      <c r="L50" s="17"/>
-      <c r="M50" s="21"/>
-    </row>
-    <row r="51" ht="12.75" customHeight="1" spans="1:13">
-      <c r="A51" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="B51" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C51" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D51" s="24"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="G51"/>
-      <c r="H51" s="26"/>
-      <c r="I51" s="27"/>
-      <c r="J51" s="20"/>
-      <c r="K51" s="21"/>
-      <c r="L51" s="17"/>
-      <c r="M51" s="21"/>
-    </row>
-    <row r="52" ht="12.75" customHeight="1" spans="1:13">
-      <c r="A52" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="B52" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C52" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D52" s="24"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="G52"/>
-      <c r="H52" s="26"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="20"/>
-      <c r="K52" s="21"/>
-      <c r="L52" s="17"/>
-      <c r="M52" s="21"/>
-    </row>
-    <row r="53" ht="12.75" customHeight="1" spans="1:13">
-      <c r="A53" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B53" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C53" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D53" s="24"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="G53"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="27"/>
-      <c r="J53" s="20"/>
-      <c r="K53" s="21"/>
-      <c r="L53" s="17"/>
-      <c r="M53" s="21"/>
-    </row>
-    <row r="54" ht="12.75" customHeight="1" spans="1:13">
-      <c r="A54" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B54" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C54" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D54" s="24"/>
-      <c r="E54" s="25"/>
-      <c r="F54" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="G54"/>
-      <c r="H54" s="26"/>
-      <c r="I54" s="27"/>
-      <c r="J54" s="20"/>
-      <c r="K54" s="21"/>
-      <c r="L54" s="17"/>
-      <c r="M54" s="21"/>
-    </row>
-    <row r="55" ht="12.75" customHeight="1" spans="1:13">
-      <c r="A55" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="B55" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C55" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D55" s="24"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="G55"/>
-      <c r="H55" s="26"/>
-      <c r="I55" s="27"/>
-      <c r="J55" s="20"/>
-      <c r="K55" s="21"/>
-      <c r="L55" s="17"/>
-      <c r="M55" s="21"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:F55">
+  <autoFilter ref="A1:F12">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15655,13 +14666,13 @@
         <v>94</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>160</v>
+        <v>117</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="J1" s="19" t="s">
         <v>98</v>
@@ -15688,10 +14699,10 @@
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="17" t="s">
-        <v>163</v>
+        <v>120</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>164</v>
+        <v>121</v>
       </c>
       <c r="G2"/>
       <c r="H2"/>
@@ -15758,13 +14769,13 @@
         <v>94</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>160</v>
+        <v>117</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="J1" s="19" t="s">
         <v>98</v>
@@ -15791,10 +14802,10 @@
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="17" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>166</v>
+        <v>123</v>
       </c>
       <c r="G2"/>
       <c r="H2"/>
@@ -15843,19 +14854,19 @@
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>167</v>
+        <v>124</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>168</v>
+        <v>125</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>169</v>
+        <v>126</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>170</v>
+        <v>127</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>171</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1" spans="1:7">
@@ -15909,7 +14920,7 @@
         <v>108</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>172</v>
+        <v>129</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="8"/>
@@ -15981,7 +14992,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="8" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>108</v>
@@ -15991,7 +15002,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="8" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>108</v>
@@ -16004,7 +15015,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="8" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>108</v>
@@ -16014,7 +15025,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="8" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>108</v>
@@ -16024,7 +15035,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="8" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>108</v>
@@ -16034,7 +15045,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="8" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>108</v>
@@ -16047,7 +15058,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="8" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>108</v>
@@ -16057,7 +15068,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="8" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>108</v>
@@ -16067,7 +15078,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="8" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>108</v>
@@ -16077,7 +15088,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="8" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>108</v>
@@ -16090,7 +15101,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="8" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>108</v>
@@ -16100,7 +15111,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="8" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>108</v>
@@ -16110,7 +15121,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="8" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>108</v>
@@ -16120,7 +15131,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="8" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>108</v>
@@ -16133,7 +15144,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="8" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>108</v>
@@ -16143,7 +15154,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="8" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>108</v>
@@ -16153,7 +15164,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="8" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>108</v>
@@ -16163,7 +15174,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="8" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>108</v>
@@ -16176,7 +15187,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="8" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>108</v>
@@ -16186,7 +15197,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="8" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>108</v>
@@ -16196,7 +15207,7 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="8" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>108</v>
@@ -16206,7 +15217,7 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="8" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>108</v>
@@ -16219,7 +15230,7 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="8" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>108</v>
@@ -16229,7 +15240,7 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="8" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>108</v>
@@ -16239,7 +15250,7 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="8" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>108</v>
@@ -16249,7 +15260,7 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="8" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>108</v>
@@ -16262,7 +15273,7 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="8" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>108</v>
@@ -16272,7 +15283,7 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="8" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>108</v>
@@ -16282,7 +15293,7 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="8" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>108</v>
@@ -16292,7 +15303,7 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="8" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>108</v>
@@ -16305,7 +15316,7 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="8" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="B43" s="9" t="s">
         <v>108</v>
@@ -16315,7 +15326,7 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="8" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>108</v>
@@ -16325,7 +15336,7 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="8" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>108</v>
@@ -16335,7 +15346,7 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="8" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>108</v>
@@ -16348,7 +15359,7 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="8" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>108</v>
@@ -16358,7 +15369,7 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="8" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>108</v>
@@ -16368,7 +15379,7 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="8" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>108</v>
@@ -16378,7 +15389,7 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="8" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>108</v>
@@ -16391,7 +15402,7 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="8" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>108</v>
@@ -16401,7 +15412,7 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="8" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="B52" s="9" t="s">
         <v>108</v>
@@ -16411,7 +15422,7 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="8" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>108</v>
@@ -16421,7 +15432,7 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="8" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>108</v>
@@ -16434,7 +15445,7 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="8" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="B55" s="9" t="s">
         <v>108</v>
